--- a/data/trans_orig/P39A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>37647</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27734</v>
+        <v>27827</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51064</v>
+        <v>49850</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1618519026025343</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1192340006880696</v>
+        <v>0.1196367006710287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2195346435026189</v>
+        <v>0.2143153401304183</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -764,19 +764,19 @@
         <v>21527</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13793</v>
+        <v>13418</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31034</v>
+        <v>31774</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08148619231692712</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05220960928204751</v>
+        <v>0.05078854540557742</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1174722578128331</v>
+        <v>0.1202726872754587</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>58</v>
@@ -785,19 +785,19 @@
         <v>59174</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>46064</v>
+        <v>44212</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76007</v>
+        <v>74034</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1191142356524455</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09272542340761367</v>
+        <v>0.08899699979921659</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1529981426891557</v>
+        <v>0.1490269488470294</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>82002</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67310</v>
+        <v>68332</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96141</v>
+        <v>97396</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3525464376627063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2893823643056569</v>
+        <v>0.2937778053738657</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4133333140295125</v>
+        <v>0.4187277807410584</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -835,19 +835,19 @@
         <v>60708</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47122</v>
+        <v>47902</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>74172</v>
+        <v>76476</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2297945452604707</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1783679395476017</v>
+        <v>0.1813213908410935</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2807605800085006</v>
+        <v>0.2894798877017337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>141</v>
@@ -856,19 +856,19 @@
         <v>142710</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>122664</v>
+        <v>121900</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162267</v>
+        <v>163344</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2872682303733542</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2469180299315129</v>
+        <v>0.2453800748395875</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3266369878462372</v>
+        <v>0.3288033052106412</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>57595</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46236</v>
+        <v>45930</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72053</v>
+        <v>71788</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2476137525008835</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1987788214988216</v>
+        <v>0.1974659814676801</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3097741556217504</v>
+        <v>0.308636245609778</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>65</v>
@@ -906,19 +906,19 @@
         <v>68475</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55862</v>
+        <v>55132</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83478</v>
+        <v>83624</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.259193473583238</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2114514416694617</v>
+        <v>0.2086880525463796</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3159856245003608</v>
+        <v>0.3165367066235518</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>123</v>
@@ -927,19 +927,19 @@
         <v>126069</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>107173</v>
+        <v>107480</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>147691</v>
+        <v>145727</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2537717303403604</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2157352074622962</v>
+        <v>0.2163521984460619</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2972961548234621</v>
+        <v>0.2933414115926503</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>23362</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15481</v>
+        <v>15368</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34089</v>
+        <v>33631</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1004375909619662</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06655834306516063</v>
+        <v>0.06607010920916713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1465564878553273</v>
+        <v>0.1445887877674333</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -977,19 +977,19 @@
         <v>34826</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25317</v>
+        <v>25066</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46667</v>
+        <v>47640</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1318245047057168</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09583152400311305</v>
+        <v>0.09488029206997757</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1766465484625515</v>
+        <v>0.1803301830195946</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>57</v>
@@ -998,19 +998,19 @@
         <v>58187</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44754</v>
+        <v>46074</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73314</v>
+        <v>76240</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.117128832306122</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09008864390168832</v>
+        <v>0.09274491592490187</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1475775034019482</v>
+        <v>0.1534677030004128</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>31994</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22654</v>
+        <v>22523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>45067</v>
+        <v>44756</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1375503162719098</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09739641227851918</v>
+        <v>0.09682988551144939</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.193753890086771</v>
+        <v>0.1924155490883551</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -1048,19 +1048,19 @@
         <v>78648</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64708</v>
+        <v>65041</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94470</v>
+        <v>96073</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2977012841336473</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.244934778416547</v>
+        <v>0.2461939918658399</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3575928794639473</v>
+        <v>0.3636579599252941</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>105</v>
@@ -1069,19 +1069,19 @@
         <v>110642</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>92007</v>
+        <v>93656</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>131137</v>
+        <v>130005</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2227169713277178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1852058238818927</v>
+        <v>0.1885251776479221</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2639735306774557</v>
+        <v>0.2616941487134206</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>69028</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54741</v>
+        <v>53988</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85604</v>
+        <v>86563</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1309089884534771</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1038147703033862</v>
+        <v>0.1023852137138356</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1623435509589177</v>
+        <v>0.1641633719325129</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1194,19 +1194,19 @@
         <v>56384</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41708</v>
+        <v>42490</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72572</v>
+        <v>71970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1085719512663051</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0803127389739979</v>
+        <v>0.08181798348074744</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1397433271621679</v>
+        <v>0.1385841275720385</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>119</v>
@@ -1215,19 +1215,19 @@
         <v>125412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>103959</v>
+        <v>106147</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147675</v>
+        <v>149186</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1198256218435349</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0993279704726794</v>
+        <v>0.1014189167844187</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1410971181484489</v>
+        <v>0.1425407782534868</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>162063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>140746</v>
+        <v>141349</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>183324</v>
+        <v>184853</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3073450789933654</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2669196339875304</v>
+        <v>0.2680614272952588</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3476657911942174</v>
+        <v>0.3505665530425244</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>115</v>
@@ -1265,19 +1265,19 @@
         <v>121627</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>101119</v>
+        <v>103468</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>140964</v>
+        <v>141410</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2342050324719649</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.194713389754162</v>
+        <v>0.1992374390256782</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2714401324100515</v>
+        <v>0.2722977935284944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>280</v>
@@ -1286,19 +1286,19 @@
         <v>283690</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>257797</v>
+        <v>255836</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>317009</v>
+        <v>313433</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2710538760611139</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2463137935258639</v>
+        <v>0.2444404531434206</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3028883588727198</v>
+        <v>0.2994723482169261</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>144937</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>125455</v>
+        <v>123531</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>166241</v>
+        <v>166554</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2748665635713405</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2379194970801584</v>
+        <v>0.2342705088049533</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3152691276246538</v>
+        <v>0.3158617693973765</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>126</v>
@@ -1336,19 +1336,19 @@
         <v>135405</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114679</v>
+        <v>114580</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>154529</v>
+        <v>158109</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2607358902898336</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2208257177866062</v>
+        <v>0.220635256750261</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2975596474511261</v>
+        <v>0.3044529568734648</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>261</v>
@@ -1357,19 +1357,19 @@
         <v>280342</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>248241</v>
+        <v>248656</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>310007</v>
+        <v>310031</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2678550950801568</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2371833537331313</v>
+        <v>0.2375800257845113</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2961987030664124</v>
+        <v>0.296221614254245</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>42205</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29834</v>
+        <v>30676</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56007</v>
+        <v>57700</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08003952209371178</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05657824740488409</v>
+        <v>0.05817552289422931</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1062139878854949</v>
+        <v>0.1094248880964556</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -1407,19 +1407,19 @@
         <v>58419</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45954</v>
+        <v>43907</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74997</v>
+        <v>74825</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1124907257113745</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08848922066983851</v>
+        <v>0.08454656068304518</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1444142145631624</v>
+        <v>0.1440834220286183</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -1428,19 +1428,19 @@
         <v>100623</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82233</v>
+        <v>81590</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121079</v>
+        <v>120389</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09614141526846966</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07857042549690095</v>
+        <v>0.07795556124474094</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1156854563556941</v>
+        <v>0.115026487410081</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>109066</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>90279</v>
+        <v>89599</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>129422</v>
+        <v>129000</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2068398468881052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1712104039506013</v>
+        <v>0.1699207228915982</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2454427898873459</v>
+        <v>0.24464274218269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -1478,19 +1478,19 @@
         <v>147485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>127478</v>
+        <v>126778</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>170753</v>
+        <v>168891</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2839964002605219</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2454719049697816</v>
+        <v>0.244122169462573</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3288017783051783</v>
+        <v>0.3252160898730234</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>241</v>
@@ -1499,19 +1499,19 @@
         <v>256551</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>227205</v>
+        <v>229317</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>284390</v>
+        <v>286390</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2451239917467248</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2170843599781524</v>
+        <v>0.2191024206289046</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2717223304046291</v>
+        <v>0.273633183938027</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>63710</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>48706</v>
+        <v>49674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>79295</v>
+        <v>80454</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.115208661949941</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08807698592061367</v>
+        <v>0.08982701460453364</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1433924892523948</v>
+        <v>0.1454875686452158</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -1624,19 +1624,19 @@
         <v>78519</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>60693</v>
+        <v>61657</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96539</v>
+        <v>95533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1233436356876219</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09534157953193366</v>
+        <v>0.09685517352534956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1516502270558392</v>
+        <v>0.1500701374831119</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>136</v>
@@ -1645,19 +1645,19 @@
         <v>142229</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>120138</v>
+        <v>121448</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>166241</v>
+        <v>165231</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1195619696665968</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1009920776128073</v>
+        <v>0.1020928416868053</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1397472361193295</v>
+        <v>0.1388986089101215</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>130889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109955</v>
+        <v>111758</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>151022</v>
+        <v>151082</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2366898853174018</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1988359714429112</v>
+        <v>0.2020957759543009</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2730973991423278</v>
+        <v>0.2732067452857957</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>139</v>
@@ -1695,19 +1695,19 @@
         <v>147295</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125325</v>
+        <v>127114</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>170312</v>
+        <v>168890</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2313826766924461</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1968698996510728</v>
+        <v>0.19968072280771</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2675398817147812</v>
+        <v>0.2653052776814253</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>268</v>
@@ -1716,19 +1716,19 @@
         <v>278184</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>248651</v>
+        <v>249295</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>304432</v>
+        <v>309566</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2338498131787659</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2090233033385853</v>
+        <v>0.2095648326235566</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.255915121102588</v>
+        <v>0.2602303827467757</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>152160</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>130129</v>
+        <v>132102</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>173316</v>
+        <v>175376</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2751561319372799</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2353155554084191</v>
+        <v>0.2388845864955605</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.313413406018374</v>
+        <v>0.3171374197581243</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>145</v>
@@ -1766,19 +1766,19 @@
         <v>158392</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>137633</v>
+        <v>136927</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>179437</v>
+        <v>182563</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2488151097184325</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2162039213697255</v>
+        <v>0.2150950888065647</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.281872874828444</v>
+        <v>0.2867844110111992</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>292</v>
@@ -1787,19 +1787,19 @@
         <v>310553</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>279342</v>
+        <v>279621</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>341369</v>
+        <v>343145</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.261060133721728</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2348234024292252</v>
+        <v>0.2350577987414882</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2869651257752344</v>
+        <v>0.2884582097255969</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>58193</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44665</v>
+        <v>43778</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74726</v>
+        <v>75237</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1052320778499245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08076822461911969</v>
+        <v>0.07916464645799885</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1351293986307706</v>
+        <v>0.1360533531798843</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -1837,19 +1837,19 @@
         <v>76024</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60639</v>
+        <v>60060</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>93697</v>
+        <v>92666</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1194247131420128</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09525696977850832</v>
+        <v>0.0943474721789854</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1471870908627478</v>
+        <v>0.1455664934440865</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>129</v>
@@ -1858,19 +1858,19 @@
         <v>134217</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113981</v>
+        <v>113718</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>157685</v>
+        <v>155699</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1128270511994443</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09581578024062681</v>
+        <v>0.09559468461918261</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1325544954497197</v>
+        <v>0.1308850304812042</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>148044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>125776</v>
+        <v>129312</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>170957</v>
+        <v>170482</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2677132429454528</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2274455025714521</v>
+        <v>0.2338396128535783</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3091461545043985</v>
+        <v>0.3082879335768434</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>166</v>
@@ -1908,19 +1908,19 @@
         <v>176356</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>155055</v>
+        <v>153329</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>200769</v>
+        <v>200086</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2770338647594867</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2435722235455043</v>
+        <v>0.2408614126320343</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3153838599548814</v>
+        <v>0.3143101308524677</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>302</v>
@@ -1929,19 +1929,19 @@
         <v>324401</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>292871</v>
+        <v>295312</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>360634</v>
+        <v>360975</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2727010322334649</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2461962946999922</v>
+        <v>0.2482485547637303</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3031603935893954</v>
+        <v>0.3034468267286546</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>43433</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32266</v>
+        <v>30941</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59627</v>
+        <v>57351</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07987438367493574</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05933879110100554</v>
+        <v>0.05690098681457973</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1096551238990715</v>
+        <v>0.105470854073715</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -2054,19 +2054,19 @@
         <v>63921</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50516</v>
+        <v>49765</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>82280</v>
+        <v>81285</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1192410667085715</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09423501736879547</v>
+        <v>0.09283372528626427</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1534876973379913</v>
+        <v>0.1516330779338815</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>95</v>
@@ -2075,19 +2075,19 @@
         <v>107354</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>87760</v>
+        <v>86436</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>132072</v>
+        <v>127775</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09941736921047967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08127147867394</v>
+        <v>0.08004578012974942</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.122307723149909</v>
+        <v>0.1183285146157448</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>140885</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>119671</v>
+        <v>120532</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>161484</v>
+        <v>163898</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2590908893311499</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2200787403275911</v>
+        <v>0.2216612313055611</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2969725399323523</v>
+        <v>0.3014124410554625</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>90</v>
@@ -2125,19 +2125,19 @@
         <v>104964</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>86179</v>
+        <v>87002</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>125842</v>
+        <v>126664</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1958050183564491</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1607616876319908</v>
+        <v>0.1622969510471436</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2347500598405981</v>
+        <v>0.236284426707392</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>217</v>
@@ -2146,19 +2146,19 @@
         <v>245849</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>216863</v>
+        <v>218437</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>273121</v>
+        <v>275957</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2276735900883833</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2008300732103804</v>
+        <v>0.2022876629927023</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2529290917283168</v>
+        <v>0.2555550548748734</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>156210</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>135574</v>
+        <v>132385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>179060</v>
+        <v>178003</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2872733951104453</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2493233524235834</v>
+        <v>0.243458617472279</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3292956573332877</v>
+        <v>0.3273520600460733</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>113</v>
@@ -2196,19 +2196,19 @@
         <v>128078</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>108767</v>
+        <v>108598</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>150570</v>
+        <v>150752</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.238922128821584</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2028982545633559</v>
+        <v>0.202582615866209</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2808803011621976</v>
+        <v>0.2812192101052006</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>250</v>
@@ -2217,19 +2217,19 @@
         <v>284288</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>248550</v>
+        <v>254251</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>314573</v>
+        <v>315286</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2632701511261584</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2301744729545721</v>
+        <v>0.2354546593041803</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2913162145709081</v>
+        <v>0.291977125211146</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>61503</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46615</v>
+        <v>47427</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>78352</v>
+        <v>80902</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1131063780246184</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08572552153258049</v>
+        <v>0.08721956838885289</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1440911272040275</v>
+        <v>0.1487815518447645</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -2267,19 +2267,19 @@
         <v>67042</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50012</v>
+        <v>51502</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>85041</v>
+        <v>85263</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1250623057919913</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09329432052915167</v>
+        <v>0.09607426483258619</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1586399699856878</v>
+        <v>0.1590524475551269</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -2288,19 +2288,19 @@
         <v>128545</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>107311</v>
+        <v>108903</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>152467</v>
+        <v>157772</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1190417148479453</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09937743819582792</v>
+        <v>0.1008521978167786</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1411954744221945</v>
+        <v>0.1461074985719718</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>141735</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>119194</v>
+        <v>121670</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>164194</v>
+        <v>164179</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2606549538588507</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2192017633607176</v>
+        <v>0.2237551086013604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3019571381690863</v>
+        <v>0.3019289686563698</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>153</v>
@@ -2338,19 +2338,19 @@
         <v>172061</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>149656</v>
+        <v>150592</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>193609</v>
+        <v>195298</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3209694803214041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2791744935594678</v>
+        <v>0.2809212335458956</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3611658947395486</v>
+        <v>0.3643170568684968</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>282</v>
@@ -2359,19 +2359,19 @@
         <v>313796</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>282580</v>
+        <v>283562</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>345546</v>
+        <v>346817</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2905971747270334</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.261688414282158</v>
+        <v>0.2625981057804553</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3199999805120324</v>
+        <v>0.3211771176890342</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>21090</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>13027</v>
+        <v>13610</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31859</v>
+        <v>32321</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05357373443083832</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0330907156859847</v>
+        <v>0.03457206609438174</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08092818139379417</v>
+        <v>0.08210238046993736</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>12</v>
@@ -2484,19 +2484,19 @@
         <v>14333</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7826</v>
+        <v>7560</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>25537</v>
+        <v>24814</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03457010134249027</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01887574692972265</v>
+        <v>0.01823509790517409</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06159368885708992</v>
+        <v>0.05984857385616208</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>31</v>
@@ -2505,19 +2505,19 @@
         <v>35424</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24342</v>
+        <v>24251</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>49387</v>
+        <v>50795</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04382572129573142</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03011592129210208</v>
+        <v>0.03000362923854179</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0611008614892731</v>
+        <v>0.06284343548239626</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>57096</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>44518</v>
+        <v>44736</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>73466</v>
+        <v>74781</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1450348057629537</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1130840414312503</v>
+        <v>0.1136398368215367</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1866175372189598</v>
+        <v>0.1899586265549694</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>34</v>
@@ -2555,19 +2555,19 @@
         <v>39174</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>27723</v>
+        <v>27696</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53087</v>
+        <v>53664</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09448285667147722</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06686389674180349</v>
+        <v>0.06680035229445748</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1280405068857791</v>
+        <v>0.1294323866587365</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>85</v>
@@ -2576,19 +2576,19 @@
         <v>96270</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>79831</v>
+        <v>77293</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>119172</v>
+        <v>116786</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1191039186816244</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09876642940277791</v>
+        <v>0.09562681560464101</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1474391693689614</v>
+        <v>0.1444867851185785</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>89061</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>72959</v>
+        <v>74028</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>105449</v>
+        <v>106646</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2262330599706964</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1853313842863108</v>
+        <v>0.1880474436699443</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.26786115086979</v>
+        <v>0.2709021343484748</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>76</v>
@@ -2626,19 +2626,19 @@
         <v>83559</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>66677</v>
+        <v>68242</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>102399</v>
+        <v>100375</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2015358079694236</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1608166540384038</v>
+        <v>0.1645929372099556</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.246974442963868</v>
+        <v>0.2420936897298388</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>161</v>
@@ -2647,19 +2647,19 @@
         <v>172620</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>148787</v>
+        <v>150662</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>196350</v>
+        <v>199783</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2135644751906069</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1840776838503432</v>
+        <v>0.186397607067339</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2429229675639432</v>
+        <v>0.2471697280720659</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>56701</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>43411</v>
+        <v>44380</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>70629</v>
+        <v>71169</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1440328345005689</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1102721540748777</v>
+        <v>0.112733476692006</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1794117907447697</v>
+        <v>0.1807848412373258</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>65</v>
@@ -2697,19 +2697,19 @@
         <v>71094</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>56872</v>
+        <v>55909</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>89927</v>
+        <v>86765</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1714719408446453</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1371683297747599</v>
+        <v>0.1348475954984125</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2168955329422725</v>
+        <v>0.2092677900135536</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>118</v>
@@ -2718,19 +2718,19 @@
         <v>127796</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>106065</v>
+        <v>106519</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>149782</v>
+        <v>148359</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1581078678278358</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.131223251382525</v>
+        <v>0.1317841906881705</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1853091687988289</v>
+        <v>0.1835482143002264</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>169721</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>149312</v>
+        <v>149753</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>189868</v>
+        <v>189433</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4311255653349426</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3792827952152353</v>
+        <v>0.3804029910263571</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4823048040697598</v>
+        <v>0.4811995816106524</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>189</v>
@@ -2768,19 +2768,19 @@
         <v>206452</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>184385</v>
+        <v>186075</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>227474</v>
+        <v>227062</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4979392931719636</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4447175993345977</v>
+        <v>0.4487923152532998</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5486440155693592</v>
+        <v>0.5476496621885175</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>343</v>
@@ -2789,19 +2789,19 @@
         <v>376173</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>347035</v>
+        <v>344874</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>404252</v>
+        <v>403433</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4653980170042015</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4293494195228028</v>
+        <v>0.4266757689367535</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5001372645698914</v>
+        <v>0.499123848976502</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>9211</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4067</v>
+        <v>4210</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>17256</v>
+        <v>18855</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0313781800580981</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01385396033651662</v>
+        <v>0.01434089686487025</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05878856607921348</v>
+        <v>0.06423328459487648</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -2914,19 +2914,19 @@
         <v>6029</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2046</v>
+        <v>2000</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13146</v>
+        <v>13175</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01820350778088391</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006177242734874933</v>
+        <v>0.006038367982507891</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03969054085556951</v>
+        <v>0.03977796607235961</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>13</v>
@@ -2935,19 +2935,19 @@
         <v>15240</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>8767</v>
+        <v>9038</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>26377</v>
+        <v>25673</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02439367403623503</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01403310635938376</v>
+        <v>0.01446617975737221</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04222102310967964</v>
+        <v>0.04109344049809565</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>12097</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6674</v>
+        <v>6925</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19924</v>
+        <v>20685</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04120994149005952</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02273537666216409</v>
+        <v>0.02359013360779956</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.06787611923416921</v>
+        <v>0.07046950494644806</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>18</v>
@@ -2985,19 +2985,19 @@
         <v>19172</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>11450</v>
+        <v>12094</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>28784</v>
+        <v>29661</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05788574196836098</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03457000152627207</v>
+        <v>0.03651413936463582</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08690943629619358</v>
+        <v>0.08955651247071048</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>30</v>
@@ -3006,19 +3006,19 @@
         <v>31268</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>21542</v>
+        <v>21050</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>44066</v>
+        <v>43330</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05005055827424506</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03448178015816027</v>
+        <v>0.0336937459687597</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07053579256132549</v>
+        <v>0.06935816904342908</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>53642</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>40638</v>
+        <v>40214</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>68248</v>
+        <v>69040</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.18274405863349</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1384426010421803</v>
+        <v>0.1369985448810706</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2325038499654024</v>
+        <v>0.2352040321726945</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>38</v>
@@ -3056,19 +3056,19 @@
         <v>37948</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>27268</v>
+        <v>27674</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>49736</v>
+        <v>50408</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1145763604252574</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0823307285423798</v>
+        <v>0.08355776577681556</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1501685108581556</v>
+        <v>0.1521980698037853</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>85</v>
@@ -3077,19 +3077,19 @@
         <v>91589</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>74512</v>
+        <v>74033</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>111600</v>
+        <v>112445</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1466051939533113</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1192697097228009</v>
+        <v>0.1185025481207483</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1786360752509631</v>
+        <v>0.17998890453609</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>53474</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>41141</v>
+        <v>39445</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>71228</v>
+        <v>68966</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1821743948021275</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.14015908535799</v>
+        <v>0.1343783267326973</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2426551338197949</v>
+        <v>0.2349495728632346</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>41</v>
@@ -3127,19 +3127,19 @@
         <v>41666</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>31155</v>
+        <v>29615</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>55893</v>
+        <v>54671</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1258030754637598</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09406666967867773</v>
+        <v>0.08941711277913778</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1687577051344352</v>
+        <v>0.1650687738154753</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>87</v>
@@ -3148,19 +3148,19 @@
         <v>95140</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>78072</v>
+        <v>78008</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>115854</v>
+        <v>114818</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1522893387571168</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1249683505561491</v>
+        <v>0.1248653138027795</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.185445224571109</v>
+        <v>0.183786224051246</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>165111</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>146577</v>
+        <v>145437</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>183819</v>
+        <v>181809</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5624934250162248</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.499352838642269</v>
+        <v>0.495469766192796</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6262281710378212</v>
+        <v>0.6193803927069013</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>221</v>
@@ -3198,19 +3198,19 @@
         <v>226386</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>208702</v>
+        <v>208581</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>243414</v>
+        <v>243451</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6835313143617379</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.630137002062597</v>
+        <v>0.6297708325413618</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7349426164744449</v>
+        <v>0.7350554405332816</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>374</v>
@@ -3219,19 +3219,19 @@
         <v>391497</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>365769</v>
+        <v>367425</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>415408</v>
+        <v>416799</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6266612349790918</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5854790931198619</v>
+        <v>0.5881291950753276</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.664934279006488</v>
+        <v>0.6671617754485438</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>3272</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1029</v>
+        <v>1038</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>9140</v>
+        <v>9197</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01374725189292004</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004323094475287848</v>
+        <v>0.004361794127603709</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0384002912256548</v>
+        <v>0.03863937888723258</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -3344,19 +3344,19 @@
         <v>6873</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3283</v>
+        <v>2431</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>15225</v>
+        <v>13889</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01803213514106347</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.008613701517578752</v>
+        <v>0.006379239612915537</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03994727992731637</v>
+        <v>0.03644261272553982</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>9</v>
@@ -3365,19 +3365,19 @@
         <v>10145</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4520</v>
+        <v>4958</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>18403</v>
+        <v>18431</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01638493811611959</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.007300687631687242</v>
+        <v>0.008008631047075585</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02972319291720701</v>
+        <v>0.02976876572131009</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>4362</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1129</v>
+        <v>1099</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10824</v>
+        <v>10877</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01832562610523611</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.004743907272581235</v>
+        <v>0.004616169103278087</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04547617053435362</v>
+        <v>0.04569892938088859</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -3415,19 +3415,19 @@
         <v>10137</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5354</v>
+        <v>4526</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>18238</v>
+        <v>18774</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02659826151232971</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0140483344751881</v>
+        <v>0.01187631980494536</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04785333229917087</v>
+        <v>0.04925968562273685</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>13</v>
@@ -3436,19 +3436,19 @@
         <v>14499</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>7738</v>
+        <v>8680</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>24349</v>
+        <v>23268</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02341809074877059</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01249805925096791</v>
+        <v>0.01402001186519892</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0393269179730774</v>
+        <v>0.03758162952470069</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>28720</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19654</v>
+        <v>19450</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>40154</v>
+        <v>41798</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1206674033665787</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08257478253600666</v>
+        <v>0.08171824785133458</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1687063680519141</v>
+        <v>0.1756126743158684</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>40</v>
@@ -3486,19 +3486,19 @@
         <v>45622</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>33345</v>
+        <v>34277</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>60477</v>
+        <v>61602</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1197006414189487</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08748836568007647</v>
+        <v>0.08993345023667107</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1586780913611723</v>
+        <v>0.1616287497162918</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>66</v>
@@ -3507,19 +3507,19 @@
         <v>74342</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>57303</v>
+        <v>58858</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>93053</v>
+        <v>90936</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.120072284544734</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09255243235094671</v>
+        <v>0.09506364891075356</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.15029350145965</v>
+        <v>0.1468741087513521</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>42388</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>31037</v>
+        <v>30605</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>59139</v>
+        <v>56447</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1780940923820131</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1304014664736199</v>
+        <v>0.1285882050917441</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.24847300617896</v>
+        <v>0.2371627655634895</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>66</v>
@@ -3557,19 +3557,19 @@
         <v>72849</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>59121</v>
+        <v>57532</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>89932</v>
+        <v>89487</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1911397734307692</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.155120402595316</v>
+        <v>0.1509496306674131</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2359605681177784</v>
+        <v>0.2347924658963428</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>101</v>
@@ -3578,19 +3578,19 @@
         <v>115238</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>95486</v>
+        <v>96642</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>137828</v>
+        <v>135376</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1861247460035484</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.15422260757637</v>
+        <v>0.1560902446485306</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2226109097486647</v>
+        <v>0.2186513041609581</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>159269</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>144116</v>
+        <v>143338</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>174172</v>
+        <v>173983</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.669165626253252</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6055027404756498</v>
+        <v>0.6022330675186343</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.731780116154141</v>
+        <v>0.7309856877779359</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>222</v>
@@ -3628,19 +3628,19 @@
         <v>245651</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>226656</v>
+        <v>224200</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>264945</v>
+        <v>265375</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.644529188496889</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5946923575346852</v>
+        <v>0.588246797842088</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6951516641173597</v>
+        <v>0.6962815354514157</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>365</v>
@@ -3649,19 +3649,19 @@
         <v>404919</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>377645</v>
+        <v>379299</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>429119</v>
+        <v>428902</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.6539999405868273</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.6099479719223565</v>
+        <v>0.6126189558575525</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6930857331745971</v>
+        <v>0.6927356683336099</v>
       </c>
     </row>
     <row r="45">
@@ -3753,19 +3753,19 @@
         <v>247390</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>219464</v>
+        <v>217907</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>280348</v>
+        <v>280210</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.08892943126234061</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07889052858193434</v>
+        <v>0.07833114274861423</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1007766369698185</v>
+        <v>0.1007269494480595</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>227</v>
@@ -3774,19 +3774,19 @@
         <v>247586</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>218324</v>
+        <v>217080</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>280876</v>
+        <v>278748</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.0803041084354595</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.07081307902883181</v>
+        <v>0.07040968492353468</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.0911017644523659</v>
+        <v>0.09041165055093808</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>461</v>
@@ -3795,19 +3795,19 @@
         <v>494976</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>456080</v>
+        <v>454635</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>544681</v>
+        <v>540167</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08439526965037066</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07776329240594428</v>
+        <v>0.07751697717154549</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09287016237868662</v>
+        <v>0.09210052598618364</v>
       </c>
     </row>
     <row r="47">
@@ -3824,19 +3824,19 @@
         <v>589392</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>547112</v>
+        <v>546549</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>631029</v>
+        <v>634255</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2118686339887473</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1966702935971737</v>
+        <v>0.1964678557601689</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.226835886877969</v>
+        <v>0.2279956235602088</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>466</v>
@@ -3845,19 +3845,19 @@
         <v>503078</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>459327</v>
+        <v>465084</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>549544</v>
+        <v>547594</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1631726518984769</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.148982106820566</v>
+        <v>0.1508492245265745</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1782438195106046</v>
+        <v>0.1776113310971656</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1034</v>
@@ -3866,19 +3866,19 @@
         <v>1092470</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1032728</v>
+        <v>1031136</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1155187</v>
+        <v>1150352</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1862701193496472</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1760839390715896</v>
+        <v>0.1758124019125209</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1969636050446631</v>
+        <v>0.1961393356163426</v>
       </c>
     </row>
     <row r="48">
@@ -3895,19 +3895,19 @@
         <v>682324</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>633914</v>
+        <v>639663</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>729423</v>
+        <v>730579</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2452749313236692</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2278729164416589</v>
+        <v>0.229939571872717</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2622055966438511</v>
+        <v>0.2626211287725177</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>603</v>
@@ -3916,19 +3916,19 @@
         <v>657479</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>609991</v>
+        <v>606547</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>704714</v>
+        <v>706676</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2132525288741497</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1978498124591617</v>
+        <v>0.1967326828541574</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2285731784943547</v>
+        <v>0.2292093944598915</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1238</v>
@@ -3937,19 +3937,19 @@
         <v>1339803</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1270980</v>
+        <v>1280283</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1410917</v>
+        <v>1413466</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2284413877191146</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2167068322131732</v>
+        <v>0.2182929985814337</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.240566570451914</v>
+        <v>0.2410011555189589</v>
       </c>
     </row>
     <row r="49">
@@ -3966,19 +3966,19 @@
         <v>337827</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>302975</v>
+        <v>299656</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>372351</v>
+        <v>375557</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1214385692082953</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1089104987447169</v>
+        <v>0.1077174404781914</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1338491561299077</v>
+        <v>0.1350014816953614</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>395</v>
@@ -3987,19 +3987,19 @@
         <v>421920</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>382219</v>
+        <v>384136</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>461632</v>
+        <v>457700</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1368493213208132</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1239720818547623</v>
+        <v>0.1245939960636163</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1497296468618191</v>
+        <v>0.1484543073202183</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>699</v>
@@ -4008,19 +4008,19 @@
         <v>759747</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>705638</v>
+        <v>709404</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>814808</v>
+        <v>817926</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1295396967884012</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.120313837999407</v>
+        <v>0.1209559477080883</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1389277037678169</v>
+        <v>0.1394593578318797</v>
       </c>
     </row>
     <row r="50">
@@ -4037,19 +4037,19 @@
         <v>924941</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>872472</v>
+        <v>871645</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>979686</v>
+        <v>971553</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.3324884342169475</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.3136274100586114</v>
+        <v>0.3133300191480812</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.3521675230618208</v>
+        <v>0.3492441991530669</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1162</v>
@@ -4058,19 +4058,19 @@
         <v>1253039</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>1196756</v>
+        <v>1193408</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>1309770</v>
+        <v>1307154</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.4064213894711006</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.3881661033284557</v>
+        <v>0.3870803983542003</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.4248221360344191</v>
+        <v>0.4239736468066004</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>2012</v>
@@ -4079,19 +4079,19 @@
         <v>2177980</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2097698</v>
+        <v>2099366</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>2249223</v>
+        <v>2251714</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.3713535264924663</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.3576652008527798</v>
+        <v>0.3579496556631147</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.383500764938666</v>
+        <v>0.3839254711540462</v>
       </c>
     </row>
     <row r="51">
@@ -4426,19 +4426,19 @@
         <v>37123</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27008</v>
+        <v>26522</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50493</v>
+        <v>49486</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1664244014030958</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1210771957449458</v>
+        <v>0.1189014570005036</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2263619638970983</v>
+        <v>0.2218469121484764</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>28</v>
@@ -4447,19 +4447,19 @@
         <v>26291</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17832</v>
+        <v>17902</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37697</v>
+        <v>36528</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1050002396458393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07121586092136097</v>
+        <v>0.07149855922678247</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1505547103138695</v>
+        <v>0.145885041943184</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -4468,19 +4468,19 @@
         <v>63414</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49918</v>
+        <v>49547</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80650</v>
+        <v>78412</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1339396661217539</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1054335211747483</v>
+        <v>0.1046503253375244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1703456592117779</v>
+        <v>0.1656177937396904</v>
       </c>
     </row>
     <row r="5">
@@ -4497,19 +4497,19 @@
         <v>84476</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70415</v>
+        <v>70386</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>99353</v>
+        <v>99988</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3787125284417243</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3156753698022473</v>
+        <v>0.3155425205978783</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4454040374240486</v>
+        <v>0.44825032154657</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -4518,19 +4518,19 @@
         <v>85489</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70341</v>
+        <v>70661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100187</v>
+        <v>101940</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3414230658802099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2809251805976236</v>
+        <v>0.2822041887343997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4001260056280126</v>
+        <v>0.4071260334613114</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>166</v>
@@ -4539,19 +4539,19 @@
         <v>169965</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>152309</v>
+        <v>149727</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>192217</v>
+        <v>190982</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.358991651746957</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3217002525161178</v>
+        <v>0.3162463481719874</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4059914885465731</v>
+        <v>0.4033837859391099</v>
       </c>
     </row>
     <row r="6">
@@ -4568,19 +4568,19 @@
         <v>53144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41637</v>
+        <v>41434</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>66711</v>
+        <v>67829</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2382479549784309</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1866606048559467</v>
+        <v>0.1857494070052629</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2990714469396774</v>
+        <v>0.3040798929013233</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>65</v>
@@ -4589,19 +4589,19 @@
         <v>63391</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51340</v>
+        <v>50813</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>78173</v>
+        <v>77956</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2531697115759</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2050405651979968</v>
+        <v>0.2029367068070126</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3122045323572931</v>
+        <v>0.3113395533926136</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>115</v>
@@ -4610,19 +4610,19 @@
         <v>116535</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>98958</v>
+        <v>98065</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>135312</v>
+        <v>135556</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2461394637778022</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2090137967736893</v>
+        <v>0.207127795162922</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2858006177788435</v>
+        <v>0.286316240979048</v>
       </c>
     </row>
     <row r="7">
@@ -4639,19 +4639,19 @@
         <v>17516</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9918</v>
+        <v>10554</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27328</v>
+        <v>27492</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07852545216378361</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04446211431505422</v>
+        <v>0.04731208373334071</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1225148987526159</v>
+        <v>0.1232484706933554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -4660,19 +4660,19 @@
         <v>23027</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15071</v>
+        <v>14897</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33267</v>
+        <v>33683</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09196394987783729</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06019066181110264</v>
+        <v>0.05949573135578028</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1328627177612114</v>
+        <v>0.1345241573363472</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -4681,19 +4681,19 @@
         <v>40543</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29584</v>
+        <v>28654</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53388</v>
+        <v>53962</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08563252580273936</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06248615191178854</v>
+        <v>0.06052134354065768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1127635423103256</v>
+        <v>0.1139756553553721</v>
       </c>
     </row>
     <row r="8">
@@ -4710,19 +4710,19 @@
         <v>30803</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>21165</v>
+        <v>20875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43029</v>
+        <v>41746</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1380896630129654</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09488596034132389</v>
+        <v>0.09358493244393561</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1928997225977359</v>
+        <v>0.1871506012660742</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>53</v>
@@ -4731,19 +4731,19 @@
         <v>52192</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>39430</v>
+        <v>39870</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>64093</v>
+        <v>65959</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2084430330202135</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.157473813604008</v>
+        <v>0.1592336767796235</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2559731190796836</v>
+        <v>0.263425830392656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>81</v>
@@ -4752,19 +4752,19 @@
         <v>82994</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>68096</v>
+        <v>68193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>99482</v>
+        <v>100913</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1752966925507475</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.14383020652849</v>
+        <v>0.1440331988043453</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2101213255907392</v>
+        <v>0.2131444287626645</v>
       </c>
     </row>
     <row r="9">
@@ -4856,19 +4856,19 @@
         <v>83302</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>66537</v>
+        <v>67963</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>101121</v>
+        <v>101548</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2014164023954984</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1608797495266469</v>
+        <v>0.1643276137031343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2445010967835298</v>
+        <v>0.2455340761669128</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -4877,19 +4877,19 @@
         <v>47477</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35712</v>
+        <v>35754</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61999</v>
+        <v>60628</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09944513830248415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07480244107480484</v>
+        <v>0.07489051740574892</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.129863248744489</v>
+        <v>0.1269912175470562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -4898,19 +4898,19 @@
         <v>130779</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112420</v>
+        <v>110529</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153733</v>
+        <v>152030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1467778911449482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1261730405281412</v>
+        <v>0.1240511665986878</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1725410271921705</v>
+        <v>0.1706294311250111</v>
       </c>
     </row>
     <row r="11">
@@ -4927,19 +4927,19 @@
         <v>143400</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125021</v>
+        <v>125557</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>164379</v>
+        <v>164961</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3467282248836017</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3022903918254566</v>
+        <v>0.3035850962350736</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3974545408747961</v>
+        <v>0.3988617165420132</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>158</v>
@@ -4948,19 +4948,19 @@
         <v>155799</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>135736</v>
+        <v>137323</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>176319</v>
+        <v>175832</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3263371245994903</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2843137364097774</v>
+        <v>0.2876380080940294</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3693185558325548</v>
+        <v>0.3682988873790718</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>296</v>
@@ -4969,19 +4969,19 @@
         <v>299198</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>272516</v>
+        <v>271895</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>326712</v>
+        <v>328579</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3358022118328245</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3058557887883255</v>
+        <v>0.3051582134712237</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3666821803383197</v>
+        <v>0.3687775856251781</v>
       </c>
     </row>
     <row r="12">
@@ -4998,19 +4998,19 @@
         <v>114901</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96344</v>
+        <v>96870</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>134532</v>
+        <v>132912</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2778200554704947</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2329513204019798</v>
+        <v>0.2342233867226701</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3252864555704099</v>
+        <v>0.3213691422821604</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>144</v>
@@ -5019,19 +5019,19 @@
         <v>137842</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>118840</v>
+        <v>120332</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>157003</v>
+        <v>158003</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2887249514175341</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2489226459910567</v>
+        <v>0.2520475724971731</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.328859837780905</v>
+        <v>0.3309553274588266</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>256</v>
@@ -5040,19 +5040,19 @@
         <v>252743</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>226290</v>
+        <v>225778</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>277585</v>
+        <v>279894</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2836631455330529</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2539743766812941</v>
+        <v>0.2533990558023119</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3115441571291115</v>
+        <v>0.3141365565826016</v>
       </c>
     </row>
     <row r="13">
@@ -5069,19 +5069,19 @@
         <v>28175</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18768</v>
+        <v>19142</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39613</v>
+        <v>39614</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.068123567531544</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04538013564751257</v>
+        <v>0.04628314799391453</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09577957210130356</v>
+        <v>0.09578197129663214</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -5090,19 +5090,19 @@
         <v>50672</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38498</v>
+        <v>38687</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64481</v>
+        <v>65253</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.106138333456104</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0806385101311084</v>
+        <v>0.08103344685840938</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.135062442198669</v>
+        <v>0.1366790527255538</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -5111,19 +5111,19 @@
         <v>78847</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>63998</v>
+        <v>63945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>96762</v>
+        <v>96832</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08849273951475571</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07182708019576768</v>
+        <v>0.07176789172700937</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1085994747951767</v>
+        <v>0.1086786200997117</v>
       </c>
     </row>
     <row r="14">
@@ -5140,19 +5140,19 @@
         <v>43803</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31844</v>
+        <v>32810</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58221</v>
+        <v>58868</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1059117497188612</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07699564069004272</v>
+        <v>0.07933280369563059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1407744475822194</v>
+        <v>0.1423386412237413</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>87</v>
@@ -5161,19 +5161,19 @@
         <v>85627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71364</v>
+        <v>70266</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>103740</v>
+        <v>102272</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1793544522243873</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1494793079149656</v>
+        <v>0.1471801393655238</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2172941529931583</v>
+        <v>0.2142205287899515</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>129</v>
@@ -5182,19 +5182,19 @@
         <v>129430</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>109449</v>
+        <v>108617</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>153842</v>
+        <v>149976</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1452640119744187</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1228384212530338</v>
+        <v>0.121905593269538</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1726629616121482</v>
+        <v>0.1683242958906478</v>
       </c>
     </row>
     <row r="15">
@@ -5286,19 +5286,19 @@
         <v>69538</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55832</v>
+        <v>55284</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86939</v>
+        <v>88439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1332006942617169</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1069475111257452</v>
+        <v>0.1058977981089367</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1665336087464981</v>
+        <v>0.1694053226270788</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>89</v>
@@ -5307,19 +5307,19 @@
         <v>89725</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>72647</v>
+        <v>73977</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108927</v>
+        <v>109013</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.159304133584279</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1289826270461016</v>
+        <v>0.1313427217098713</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1933964806787321</v>
+        <v>0.1935480249686026</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>156</v>
@@ -5328,19 +5328,19 @@
         <v>159263</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>134981</v>
+        <v>137360</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>183624</v>
+        <v>182656</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1467476460164753</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1243739256608922</v>
+        <v>0.126565674213328</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1691945405323224</v>
+        <v>0.1683019045066827</v>
       </c>
     </row>
     <row r="17">
@@ -5357,19 +5357,19 @@
         <v>158467</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>137809</v>
+        <v>137105</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>179407</v>
+        <v>180169</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3035452293236698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2639756941640459</v>
+        <v>0.2626269955172167</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3436571911303714</v>
+        <v>0.3451171964864727</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>157</v>
@@ -5378,19 +5378,19 @@
         <v>153525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>135241</v>
+        <v>132860</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177837</v>
+        <v>173368</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2725782645163889</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2401147408659596</v>
+        <v>0.2358888446554555</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.31574399225363</v>
+        <v>0.3078081212189342</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>310</v>
@@ -5399,19 +5399,19 @@
         <v>311992</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>283436</v>
+        <v>282954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>340119</v>
+        <v>343227</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2874742444602713</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2611624298442929</v>
+        <v>0.2607187578829075</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3133912220847561</v>
+        <v>0.3162551969076527</v>
       </c>
     </row>
     <row r="18">
@@ -5428,19 +5428,19 @@
         <v>161596</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>141652</v>
+        <v>140951</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>183757</v>
+        <v>182372</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3095392974821027</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2713373157287629</v>
+        <v>0.2699936360652631</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3519895978280405</v>
+        <v>0.3493370092544523</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>140</v>
@@ -5449,19 +5449,19 @@
         <v>139827</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>118887</v>
+        <v>121972</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>160178</v>
+        <v>160924</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2482574617008336</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2110797705650264</v>
+        <v>0.2165570913881972</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2843897977463964</v>
+        <v>0.285715244185363</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>294</v>
@@ -5470,19 +5470,19 @@
         <v>301423</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>273190</v>
+        <v>271359</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>332549</v>
+        <v>329755</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2777357461372679</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2517217302248569</v>
+        <v>0.2500346355406368</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3064157438383817</v>
+        <v>0.3038418879854795</v>
       </c>
     </row>
     <row r="19">
@@ -5499,19 +5499,19 @@
         <v>50947</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37107</v>
+        <v>37600</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>65734</v>
+        <v>66846</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09759041092645913</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0710795544694646</v>
+        <v>0.07202387676380616</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1259139485223363</v>
+        <v>0.1280448039324552</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -5520,19 +5520,19 @@
         <v>70712</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>55087</v>
+        <v>56747</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>85866</v>
+        <v>88809</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1255469856441271</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09780477232050255</v>
+        <v>0.1007517308520344</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1524512280452291</v>
+        <v>0.1576764601176293</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -5541,19 +5541,19 @@
         <v>121660</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>101252</v>
+        <v>103210</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>143157</v>
+        <v>145105</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1120990878961334</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09329497346243953</v>
+        <v>0.09509977928408009</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1319076261692996</v>
+        <v>0.1337024126597094</v>
       </c>
     </row>
     <row r="20">
@@ -5570,19 +5570,19 @@
         <v>81505</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>66552</v>
+        <v>66212</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99158</v>
+        <v>100106</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1561243680060515</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1274805210497092</v>
+        <v>0.1268306840295991</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1899393621797302</v>
+        <v>0.1917540033939228</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>109</v>
@@ -5591,19 +5591,19 @@
         <v>109444</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>91374</v>
+        <v>91250</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>128992</v>
+        <v>126728</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1943131545543714</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.162230396237395</v>
+        <v>0.1620110910130773</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2290214187915096</v>
+        <v>0.2250007188833451</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>185</v>
@@ -5612,19 +5612,19 @@
         <v>190949</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>166502</v>
+        <v>166161</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>216469</v>
+        <v>216297</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.175943275489852</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1534173419526035</v>
+        <v>0.1531033510343475</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1994576703764611</v>
+        <v>0.19929986122738</v>
       </c>
     </row>
     <row r="21">
@@ -5716,19 +5716,19 @@
         <v>73790</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58238</v>
+        <v>58589</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91790</v>
+        <v>92419</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1338633485659664</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1056493064354023</v>
+        <v>0.1062860668420823</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1665175537474929</v>
+        <v>0.167658108073742</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -5737,19 +5737,19 @@
         <v>62380</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49599</v>
+        <v>48846</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80025</v>
+        <v>79123</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1072737573558613</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08529332028475857</v>
+        <v>0.08399977065346904</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1376164613917726</v>
+        <v>0.1360655568952148</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -5758,19 +5758,19 @@
         <v>136171</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>112746</v>
+        <v>115176</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157818</v>
+        <v>160642</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1202132772963408</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09953381349480762</v>
+        <v>0.1016791741411339</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1393234433792742</v>
+        <v>0.1418165849417585</v>
       </c>
     </row>
     <row r="23">
@@ -5787,19 +5787,19 @@
         <v>143225</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>122034</v>
+        <v>122229</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>164230</v>
+        <v>165036</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2598260835840568</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2213822927955659</v>
+        <v>0.2217370153147993</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2979309361034579</v>
+        <v>0.2993920062928822</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>168</v>
@@ -5808,19 +5808,19 @@
         <v>180537</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>158926</v>
+        <v>158717</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>203233</v>
+        <v>204141</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3104632365642695</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2733005688131129</v>
+        <v>0.2729415505263098</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3494939278757324</v>
+        <v>0.3510544900566391</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>298</v>
@@ -5829,19 +5829,19 @@
         <v>323762</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>295134</v>
+        <v>294339</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>354217</v>
+        <v>353680</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2858212461876907</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2605478675444111</v>
+        <v>0.2598459676915594</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3127072696819895</v>
+        <v>0.3122336188499305</v>
       </c>
     </row>
     <row r="24">
@@ -5858,19 +5858,19 @@
         <v>156132</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>133600</v>
+        <v>132526</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>175691</v>
+        <v>176997</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2832394684673478</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2423640144782817</v>
+        <v>0.2404161785779159</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3187220147475366</v>
+        <v>0.3210918343564745</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>130</v>
@@ -5879,19 +5879,19 @@
         <v>142659</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>122187</v>
+        <v>121494</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>164124</v>
+        <v>165488</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.245327208392415</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2101205927882902</v>
+        <v>0.208928846523631</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2822384496186194</v>
+        <v>0.2845842008609922</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>272</v>
@@ -5900,19 +5900,19 @@
         <v>298791</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>267313</v>
+        <v>270737</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>328151</v>
+        <v>328780</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2637767754185453</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2359873894649701</v>
+        <v>0.2390098050939072</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2896957828956493</v>
+        <v>0.2902516226396767</v>
       </c>
     </row>
     <row r="25">
@@ -5929,19 +5929,19 @@
         <v>66311</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>49552</v>
+        <v>52748</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>83584</v>
+        <v>84950</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1202943433612339</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08989215446255458</v>
+        <v>0.09568974189877072</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1516294062327459</v>
+        <v>0.1541080120761893</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>90</v>
@@ -5950,19 +5950,19 @@
         <v>94934</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>78060</v>
+        <v>77065</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>115002</v>
+        <v>113303</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1632543834991626</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.134237692151598</v>
+        <v>0.1325269848578803</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1977658286182815</v>
+        <v>0.1948431081560266</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>149</v>
@@ -5971,19 +5971,19 @@
         <v>161244</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>136446</v>
+        <v>139538</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>185927</v>
+        <v>190159</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1423483721349386</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1204560182469723</v>
+        <v>0.1231856120249305</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1641384157010405</v>
+        <v>0.1678749102817946</v>
       </c>
     </row>
     <row r="26">
@@ -6000,19 +6000,19 @@
         <v>111778</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>93840</v>
+        <v>91908</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>132963</v>
+        <v>132635</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2027767560213951</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1702361306050328</v>
+        <v>0.1667311230520107</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2412086612976681</v>
+        <v>0.240613911262278</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>93</v>
@@ -6021,19 +6021,19 @@
         <v>100997</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>85543</v>
+        <v>84130</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>122695</v>
+        <v>122621</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1736814141882916</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.147105124295912</v>
+        <v>0.1446755402546279</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2109946181912713</v>
+        <v>0.2108674454005533</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>192</v>
@@ -6042,19 +6042,19 @@
         <v>212775</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>188831</v>
+        <v>185271</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>242967</v>
+        <v>244403</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1878403289624846</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1667027566329596</v>
+        <v>0.1635598657767996</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.214494658307207</v>
+        <v>0.2157623691910174</v>
       </c>
     </row>
     <row r="27">
@@ -6146,19 +6146,19 @@
         <v>45161</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33634</v>
+        <v>33633</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>62172</v>
+        <v>60171</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1021551674888424</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07608050257879752</v>
+        <v>0.07607998325283122</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1406351064049917</v>
+        <v>0.136109883479565</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>30</v>
@@ -6167,19 +6167,19 @@
         <v>35457</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>24915</v>
+        <v>25105</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>50831</v>
+        <v>49799</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07769974517688391</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0545996983047927</v>
+        <v>0.05501462970079424</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.111391651928849</v>
+        <v>0.1091289047909577</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>69</v>
@@ -6188,19 +6188,19 @@
         <v>80617</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>62213</v>
+        <v>62944</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>100197</v>
+        <v>99467</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08973352851387933</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06924781983840234</v>
+        <v>0.07006196078948991</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1115276229036113</v>
+        <v>0.1107152470683885</v>
       </c>
     </row>
     <row r="29">
@@ -6217,19 +6217,19 @@
         <v>91601</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>75153</v>
+        <v>73763</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>111006</v>
+        <v>110133</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.207205962815602</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1699989793295827</v>
+        <v>0.1668552657703188</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2510996136718435</v>
+        <v>0.249124634937661</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>78</v>
@@ -6238,19 +6238,19 @@
         <v>89249</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>71650</v>
+        <v>72913</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>107572</v>
+        <v>107794</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1955811967733252</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1570135293287585</v>
+        <v>0.1597824186108861</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2357333470584955</v>
+        <v>0.2362203813777288</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>160</v>
@@ -6259,19 +6259,19 @@
         <v>180851</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>157627</v>
+        <v>156344</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>208300</v>
+        <v>207457</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2013013971489946</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1754516823663762</v>
+        <v>0.1740233401769544</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2318548254005473</v>
+        <v>0.2309159663132481</v>
       </c>
     </row>
     <row r="30">
@@ -6288,19 +6288,19 @@
         <v>120917</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>102388</v>
+        <v>101887</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>141545</v>
+        <v>140605</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2735195008037919</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2316047235086196</v>
+        <v>0.2304728470674922</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3201807961991893</v>
+        <v>0.3180537192112892</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>106</v>
@@ -6309,19 +6309,19 @@
         <v>123027</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>104422</v>
+        <v>103829</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>145009</v>
+        <v>143828</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2696018906983179</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2288317198128953</v>
+        <v>0.2275312188788148</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3177737605858613</v>
+        <v>0.315186129680627</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>214</v>
@@ -6330,19 +6330,19 @@
         <v>243944</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>214279</v>
+        <v>217121</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>271398</v>
+        <v>273476</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2715296296924241</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2385093998867706</v>
+        <v>0.2416729737960585</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3020882388025289</v>
+        <v>0.3044011820918767</v>
       </c>
     </row>
     <row r="31">
@@ -6359,19 +6359,19 @@
         <v>74948</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>59565</v>
+        <v>58870</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>94164</v>
+        <v>91834</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1695357618137014</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.134738957136713</v>
+        <v>0.1331671683939383</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2130034441221108</v>
+        <v>0.2077319327589275</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>68</v>
@@ -6380,19 +6380,19 @@
         <v>77087</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>62031</v>
+        <v>61911</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>95408</v>
+        <v>95419</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1689294705433919</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.135935146171653</v>
+        <v>0.1356718219256521</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2090768636507984</v>
+        <v>0.2091016981535301</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>134</v>
@@ -6401,19 +6401,19 @@
         <v>152035</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>127893</v>
+        <v>129447</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>176004</v>
+        <v>176584</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1692278083800053</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1423557795476901</v>
+        <v>0.144085019391431</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1959068040019959</v>
+        <v>0.1965522239837989</v>
       </c>
     </row>
     <row r="32">
@@ -6430,19 +6430,19 @@
         <v>109452</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>90194</v>
+        <v>91519</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>128428</v>
+        <v>129256</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2475836070780623</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2040217854561748</v>
+        <v>0.2070189691097723</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2905098502707673</v>
+        <v>0.2923816350227837</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>116</v>
@@ -6451,19 +6451,19 @@
         <v>131508</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>111565</v>
+        <v>113788</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>153007</v>
+        <v>154234</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2881876968080812</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2444835190753738</v>
+        <v>0.2493560935814857</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3353002961292227</v>
+        <v>0.337988994500093</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>214</v>
@@ -6472,19 +6472,19 @@
         <v>240960</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>215113</v>
+        <v>213312</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>271188</v>
+        <v>268413</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2682076362646966</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.239437989727927</v>
+        <v>0.2374336062237181</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3018537699833083</v>
+        <v>0.2987658248920186</v>
       </c>
     </row>
     <row r="33">
@@ -6576,19 +6576,19 @@
         <v>11841</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6519</v>
+        <v>6202</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21447</v>
+        <v>20332</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03686529992118127</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02029554657550428</v>
+        <v>0.01930762484326691</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06677285397158846</v>
+        <v>0.06330032701298162</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -6597,19 +6597,19 @@
         <v>12637</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6703</v>
+        <v>6708</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>21969</v>
+        <v>22383</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03447412267839281</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01828500634621768</v>
+        <v>0.01829997531328241</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05993218643519849</v>
+        <v>0.0610627537109938</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>22</v>
@@ -6618,19 +6618,19 @@
         <v>24478</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>15451</v>
+        <v>16376</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>36315</v>
+        <v>37780</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03559084722224022</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02246563010576715</v>
+        <v>0.02381108961579143</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05280208001553666</v>
+        <v>0.05493186484162397</v>
       </c>
     </row>
     <row r="35">
@@ -6647,19 +6647,19 @@
         <v>61525</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>50066</v>
+        <v>48244</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>77521</v>
+        <v>75503</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1915482124342956</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1558719622652636</v>
+        <v>0.1501995163477037</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.241349337564863</v>
+        <v>0.2350652755408307</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>41</v>
@@ -6668,19 +6668,19 @@
         <v>43800</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>32338</v>
+        <v>31832</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>57967</v>
+        <v>57272</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1194880211354097</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08821908974448267</v>
+        <v>0.08683879562993493</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1581356448571612</v>
+        <v>0.1562404067684202</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>102</v>
@@ -6689,19 +6689,19 @@
         <v>105325</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>85891</v>
+        <v>88323</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>125035</v>
+        <v>124875</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.153141479698759</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1248843411595621</v>
+        <v>0.1284212146571297</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.181798769021009</v>
+        <v>0.1815666909960361</v>
       </c>
     </row>
     <row r="36">
@@ -6718,19 +6718,19 @@
         <v>79868</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>64133</v>
+        <v>65644</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>96405</v>
+        <v>96498</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.248655875591277</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1996669939476873</v>
+        <v>0.2043728746176191</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3001411620969437</v>
+        <v>0.3004293686177615</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>107</v>
@@ -6739,19 +6739,19 @@
         <v>112825</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>95531</v>
+        <v>96192</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>131268</v>
+        <v>131541</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3077903016122605</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2606103906721117</v>
+        <v>0.26241585529469</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3581025087892632</v>
+        <v>0.3588464149776422</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>186</v>
@@ -6760,19 +6760,19 @@
         <v>192693</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>171263</v>
+        <v>169968</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>218662</v>
+        <v>217914</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2801734174506529</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.249014064124279</v>
+        <v>0.2471309297692354</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3179322955265324</v>
+        <v>0.3168442656883941</v>
       </c>
     </row>
     <row r="37">
@@ -6789,19 +6789,19 @@
         <v>64025</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>50462</v>
+        <v>51788</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>79720</v>
+        <v>80322</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1993319217721697</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1571041546097056</v>
+        <v>0.1612342045783245</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2481956250965882</v>
+        <v>0.2500701911309621</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>65</v>
@@ -6810,19 +6810,19 @@
         <v>68604</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>54210</v>
+        <v>53590</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>83944</v>
+        <v>84062</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1871524439473938</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.147885979849653</v>
+        <v>0.1461944038864658</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2290023528942337</v>
+        <v>0.229324286665141</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>125</v>
@@ -6831,19 +6831,19 @@
         <v>132629</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>112636</v>
+        <v>113105</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>154248</v>
+        <v>156915</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1928404881353318</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1637708626345106</v>
+        <v>0.1644536841264892</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.224274533837308</v>
+        <v>0.2281517928183216</v>
       </c>
     </row>
     <row r="38">
@@ -6860,19 +6860,19 @@
         <v>103940</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>87760</v>
+        <v>88202</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>123335</v>
+        <v>120982</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3235986902810764</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2732256406427639</v>
+        <v>0.2746025853125459</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3839835678075373</v>
+        <v>0.3766565077428251</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>119</v>
@@ -6881,19 +6881,19 @@
         <v>128699</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>111185</v>
+        <v>109593</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>147773</v>
+        <v>146465</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3510951106265432</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3033154385423321</v>
+        <v>0.2989721608105249</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4031281207448593</v>
+        <v>0.3995617043368084</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>220</v>
@@ -6902,19 +6902,19 @@
         <v>232639</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>209049</v>
+        <v>207386</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>258880</v>
+        <v>256102</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3382537674930161</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.30395388629265</v>
+        <v>0.3015367896052308</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.376408615797694</v>
+        <v>0.3723686849233464</v>
       </c>
     </row>
     <row r="39">
@@ -7006,19 +7006,19 @@
         <v>8754</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4691</v>
+        <v>4716</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15272</v>
+        <v>15297</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03560843744874426</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01908197335917747</v>
+        <v>0.0191812785438326</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0621227752951532</v>
+        <v>0.0622255422760644</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -7027,19 +7027,19 @@
         <v>7902</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3091</v>
+        <v>3100</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>17416</v>
+        <v>16049</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02043492616424643</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.007993288348434002</v>
+        <v>0.008016896888618988</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04503616411029159</v>
+        <v>0.04150204950648254</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>17</v>
@@ -7048,19 +7048,19 @@
         <v>16656</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>10164</v>
+        <v>10462</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>26994</v>
+        <v>27862</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02633216167984029</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01606875451062242</v>
+        <v>0.01653925986613345</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04267633937921651</v>
+        <v>0.04404784699863031</v>
       </c>
     </row>
     <row r="41">
@@ -7077,19 +7077,19 @@
         <v>25134</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18088</v>
+        <v>16981</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>35253</v>
+        <v>34814</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1022396732162879</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.07357837505973119</v>
+        <v>0.06907413780809434</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1433993867925437</v>
+        <v>0.1416110126196947</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>36</v>
@@ -7098,19 +7098,19 @@
         <v>45673</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>33326</v>
+        <v>32517</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>62833</v>
+        <v>62266</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1181082924663391</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08617940968119182</v>
+        <v>0.08408941544448297</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1624856490422193</v>
+        <v>0.1610187173715726</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>66</v>
@@ -7119,19 +7119,19 @@
         <v>70807</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>55714</v>
+        <v>56553</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>86968</v>
+        <v>88813</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1119409009331449</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.08807908377724441</v>
+        <v>0.08940660724703366</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1374894762535052</v>
+        <v>0.1404067223883692</v>
       </c>
     </row>
     <row r="42">
@@ -7148,19 +7148,19 @@
         <v>66355</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>53407</v>
+        <v>54440</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>78433</v>
+        <v>79261</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2699122751555303</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.217244219930602</v>
+        <v>0.221447319181362</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3190404883858419</v>
+        <v>0.3224092028344981</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>76</v>
@@ -7169,19 +7169,19 @@
         <v>99866</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>79311</v>
+        <v>82268</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>118586</v>
+        <v>121300</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2582511659288354</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2050961953774479</v>
+        <v>0.2127444300897006</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3066606948533496</v>
+        <v>0.3136779305021102</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>156</v>
@@ -7190,19 +7190,19 @@
         <v>166221</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>143726</v>
+        <v>142601</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>191117</v>
+        <v>191726</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.262783294728393</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2272199282325172</v>
+        <v>0.2254424611066484</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3021416718443645</v>
+        <v>0.3031056023162425</v>
       </c>
     </row>
     <row r="43">
@@ -7219,19 +7219,19 @@
         <v>62316</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>50814</v>
+        <v>50443</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>76213</v>
+        <v>75804</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2534840186139835</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2066977120400821</v>
+        <v>0.2051869055683828</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.310012258907867</v>
+        <v>0.3083493938339785</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>53</v>
@@ -7240,19 +7240,19 @@
         <v>72770</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>57370</v>
+        <v>56040</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>93718</v>
+        <v>92432</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.188180587822162</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1483567532682552</v>
+        <v>0.1449185801546357</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2423535679565854</v>
+        <v>0.239026557452214</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>126</v>
@@ -7261,19 +7261,19 @@
         <v>135086</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>113407</v>
+        <v>113101</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>155709</v>
+        <v>157623</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2135609829156238</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1792885894366848</v>
+        <v>0.1788049300756478</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.246164006650935</v>
+        <v>0.2491912580684477</v>
       </c>
     </row>
     <row r="44">
@@ -7290,19 +7290,19 @@
         <v>83279</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>69815</v>
+        <v>69718</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>97998</v>
+        <v>97399</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.338755595565454</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2839868893915328</v>
+        <v>0.2835938334700521</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3986285851193581</v>
+        <v>0.3961894496486087</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>120</v>
@@ -7311,19 +7311,19 @@
         <v>160491</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>138191</v>
+        <v>140416</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>182436</v>
+        <v>185266</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.415025027618417</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3573576404389721</v>
+        <v>0.3631137835328863</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4717754325027829</v>
+        <v>0.4790931098149765</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>215</v>
@@ -7332,19 +7332,19 @@
         <v>243770</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>217060</v>
+        <v>217799</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>269406</v>
+        <v>270211</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.385382659742998</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3431564916344241</v>
+        <v>0.3443252476150109</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4259112401487294</v>
+        <v>0.4271846903407708</v>
       </c>
     </row>
     <row r="45">
@@ -7436,19 +7436,19 @@
         <v>329509</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>297418</v>
+        <v>296198</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>368146</v>
+        <v>363645</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1211852875808449</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1093829963533201</v>
+        <v>0.1089344915126355</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.135395140574036</v>
+        <v>0.1337397828571644</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>273</v>
@@ -7457,19 +7457,19 @@
         <v>281869</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>250641</v>
+        <v>253489</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>315738</v>
+        <v>314975</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.09145244121436281</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0813204442604496</v>
+        <v>0.08224454070289278</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1024410981493188</v>
+        <v>0.1021938176191386</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>586</v>
@@ -7478,19 +7478,19 @@
         <v>611378</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>560961</v>
+        <v>563592</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>661948</v>
+        <v>657550</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1053883905713705</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.09669762069587043</v>
+        <v>0.09715115119451578</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.114105583292288</v>
+        <v>0.1133474626978891</v>
       </c>
     </row>
     <row r="47">
@@ -7507,19 +7507,19 @@
         <v>707829</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>663343</v>
+        <v>662101</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>757804</v>
+        <v>754331</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2603225271678248</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2439616034676893</v>
+        <v>0.2435046681818523</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2787019422417042</v>
+        <v>0.2774245286944833</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>723</v>
@@ -7528,19 +7528,19 @@
         <v>754070</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>706097</v>
+        <v>705336</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>802548</v>
+        <v>802231</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2446581775924233</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2290934040034715</v>
+        <v>0.2288464666795036</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2603868672652458</v>
+        <v>0.2602838118309526</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1398</v>
@@ -7549,19 +7549,19 @@
         <v>1461900</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1394631</v>
+        <v>1391903</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1530448</v>
+        <v>1528799</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2520001447792362</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.240404368320639</v>
+        <v>0.2399342072148789</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2638163464519503</v>
+        <v>0.2635321511723172</v>
       </c>
     </row>
     <row r="48">
@@ -7578,19 +7578,19 @@
         <v>752913</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>706180</v>
+        <v>705634</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>801677</v>
+        <v>797295</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2769031059591977</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2597158219084326</v>
+        <v>0.259515206892136</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2948372440760425</v>
+        <v>0.2932257106457117</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>768</v>
@@ -7599,19 +7599,19 @@
         <v>819437</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>769441</v>
+        <v>764390</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>869059</v>
+        <v>866994</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2658663829867103</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2496450614716058</v>
+        <v>0.2480064855871615</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2819663039990825</v>
+        <v>0.281296363490914</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1493</v>
@@ -7620,19 +7620,19 @@
         <v>1572350</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1498839</v>
+        <v>1500533</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1641894</v>
+        <v>1640761</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2710393560184916</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2583676032995553</v>
+        <v>0.2586596824978977</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2830272650655321</v>
+        <v>0.282832016586681</v>
       </c>
     </row>
     <row r="49">
@@ -7649,19 +7649,19 @@
         <v>364238</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>326708</v>
+        <v>328969</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>397299</v>
+        <v>397696</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1339579729362562</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1201554446593967</v>
+        <v>0.1209867380758588</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1461169732886069</v>
+        <v>0.14626296076775</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>420</v>
@@ -7670,19 +7670,19 @@
         <v>457805</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>416538</v>
+        <v>419911</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>502390</v>
+        <v>500337</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1485348718140669</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1351458956770366</v>
+        <v>0.1362400415313318</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1630004956070428</v>
+        <v>0.1623344378660604</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>768</v>
@@ -7691,19 +7691,19 @@
         <v>822043</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>764361</v>
+        <v>768115</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>875036</v>
+        <v>874703</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.141702598777053</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1317594845587551</v>
+        <v>0.132406503904543</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1508373478745965</v>
+        <v>0.1507800887560174</v>
       </c>
     </row>
     <row r="50">
@@ -7720,19 +7720,19 @@
         <v>564559</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>523291</v>
+        <v>523839</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>612067</v>
+        <v>610469</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2076311063558764</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1924537617027382</v>
+        <v>0.192655422920089</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2251034112162647</v>
+        <v>0.2245157238147977</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>697</v>
@@ -7741,19 +7741,19 @@
         <v>768957</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>721140</v>
+        <v>719568</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>817497</v>
+        <v>819112</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2494881263924367</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2339740942044537</v>
+        <v>0.2334639647124452</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2652370941029626</v>
+        <v>0.2657609778276425</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1236</v>
@@ -7762,19 +7762,19 @@
         <v>1333516</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1264261</v>
+        <v>1271955</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1398633</v>
+        <v>1395514</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2298695098538487</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2179314705919975</v>
+        <v>0.2192577445820949</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2410942345280161</v>
+        <v>0.2405566197600016</v>
       </c>
     </row>
     <row r="51">
@@ -8109,19 +8109,19 @@
         <v>37596</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22836</v>
+        <v>22700</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56643</v>
+        <v>59593</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1940983004928172</v>
+        <v>0.1940983004928171</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1178959228820473</v>
+        <v>0.1171954633522082</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2924344319819531</v>
+        <v>0.3076602120309103</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -8130,19 +8130,19 @@
         <v>28682</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18509</v>
+        <v>17843</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43653</v>
+        <v>42032</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1253285771256373</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08087806424745202</v>
+        <v>0.07796716960988177</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1907430695472614</v>
+        <v>0.1836639906293674</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -8151,19 +8151,19 @@
         <v>66278</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47296</v>
+        <v>45550</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90357</v>
+        <v>90609</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1568523823652853</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1119298313423814</v>
+        <v>0.1077989973462168</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2138384604954146</v>
+        <v>0.2144332880283555</v>
       </c>
     </row>
     <row r="5">
@@ -8180,19 +8180,19 @@
         <v>64215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45890</v>
+        <v>43218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88333</v>
+        <v>85925</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3315243585018384</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2369163482590056</v>
+        <v>0.2231223699827989</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4560416122652051</v>
+        <v>0.4436080526585408</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -8201,19 +8201,19 @@
         <v>66983</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47559</v>
+        <v>48241</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87816</v>
+        <v>87288</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2926867746313064</v>
+        <v>0.2926867746313063</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.207811654505558</v>
+        <v>0.2107937262875118</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3837203809053149</v>
+        <v>0.3814098097565476</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -8222,19 +8222,19 @@
         <v>131197</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103999</v>
+        <v>105077</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162868</v>
+        <v>161438</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.310489789824144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.246121235997699</v>
+        <v>0.2486728974597437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3854399995852059</v>
+        <v>0.3820566106435255</v>
       </c>
     </row>
     <row r="6">
@@ -8251,19 +8251,19 @@
         <v>50923</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31535</v>
+        <v>34754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>72472</v>
+        <v>76048</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2629029581222768</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1628051119543113</v>
+        <v>0.1794247383046005</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3741529074375763</v>
+        <v>0.3926134407955215</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>31</v>
@@ -8272,19 +8272,19 @@
         <v>51535</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36565</v>
+        <v>36305</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>70375</v>
+        <v>71159</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2251873724189014</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1597749466877356</v>
+        <v>0.1586396996428399</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3075096753961014</v>
+        <v>0.3109351150756359</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>51</v>
@@ -8293,19 +8293,19 @@
         <v>102458</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>79387</v>
+        <v>77973</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>131492</v>
+        <v>128374</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2424760675015382</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1878765532737807</v>
+        <v>0.1845305356367285</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3111878483260814</v>
+        <v>0.3038072969259336</v>
       </c>
     </row>
     <row r="7">
@@ -8322,19 +8322,19 @@
         <v>27085</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13980</v>
+        <v>14440</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46176</v>
+        <v>45210</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1398347392791386</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07217616806520478</v>
+        <v>0.0745489785518556</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2383953287633014</v>
+        <v>0.2334091030956114</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -8343,19 +8343,19 @@
         <v>20272</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10751</v>
+        <v>11074</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35302</v>
+        <v>33848</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0885789333359308</v>
+        <v>0.08857893333593078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0469781409188792</v>
+        <v>0.04838973589176079</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1542536594644312</v>
+        <v>0.1478994141350605</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -8364,19 +8364,19 @@
         <v>47357</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29101</v>
+        <v>29355</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72726</v>
+        <v>71306</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1120744189194311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06886969654275114</v>
+        <v>0.0694720579747906</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1721110423551085</v>
+        <v>0.1687527482690445</v>
       </c>
     </row>
     <row r="8">
@@ -8393,19 +8393,19 @@
         <v>13876</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5768</v>
+        <v>5225</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30789</v>
+        <v>28819</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07163964360392915</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02978033908188027</v>
+        <v>0.02697603985171088</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1589552417780892</v>
+        <v>0.1487839192475001</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -8414,19 +8414,19 @@
         <v>61383</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44424</v>
+        <v>44010</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>85782</v>
+        <v>83485</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2682183424882242</v>
+        <v>0.2682183424882241</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1941121487450011</v>
+        <v>0.1923066479436123</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3748300914141222</v>
+        <v>0.3647941172539948</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>38</v>
@@ -8435,19 +8435,19 @@
         <v>75259</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>54061</v>
+        <v>53439</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>99928</v>
+        <v>99218</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1781073413896012</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1279397022566217</v>
+        <v>0.1264672912525444</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2364891507563197</v>
+        <v>0.234806594342387</v>
       </c>
     </row>
     <row r="9">
@@ -8539,19 +8539,19 @@
         <v>35705</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23054</v>
+        <v>23057</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50217</v>
+        <v>51263</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1065719373240256</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06881159663749829</v>
+        <v>0.06881905846033513</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1498849027391945</v>
+        <v>0.1530063338304987</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -8560,19 +8560,19 @@
         <v>44494</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33111</v>
+        <v>32472</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59221</v>
+        <v>59153</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1137955468697938</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08468233834759972</v>
+        <v>0.08305016501057566</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1514605100964553</v>
+        <v>0.1512866768581467</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -8581,19 +8581,19 @@
         <v>80199</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61392</v>
+        <v>63148</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>99767</v>
+        <v>102498</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1104621353262736</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08455785497299864</v>
+        <v>0.08697690063904247</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1374131055558009</v>
+        <v>0.1411749038625589</v>
       </c>
     </row>
     <row r="11">
@@ -8610,19 +8610,19 @@
         <v>127586</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>104334</v>
+        <v>104423</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>151814</v>
+        <v>151755</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.380813007421713</v>
+        <v>0.3808130074217131</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3114117632819384</v>
+        <v>0.311677431772802</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4531276337427974</v>
+        <v>0.4529522577243779</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>103</v>
@@ -8631,19 +8631,19 @@
         <v>110951</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>91859</v>
+        <v>93134</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>127897</v>
+        <v>130819</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2837642122093226</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2349354815289336</v>
+        <v>0.2381960125038707</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3271028661467995</v>
+        <v>0.3345781961298394</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>186</v>
@@ -8652,19 +8652,19 @@
         <v>238537</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>210887</v>
+        <v>209245</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>272768</v>
+        <v>268904</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3285484121575645</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2904643983389434</v>
+        <v>0.2882026595550036</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3756963444388561</v>
+        <v>0.3703732222774016</v>
       </c>
     </row>
     <row r="12">
@@ -8681,19 +8681,19 @@
         <v>104069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>83346</v>
+        <v>82402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>128534</v>
+        <v>126744</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3106200000311827</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2487674314001555</v>
+        <v>0.2459507845474584</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3836435204183063</v>
+        <v>0.3782982469419959</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>107</v>
@@ -8702,19 +8702,19 @@
         <v>113317</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>94415</v>
+        <v>95721</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>133302</v>
+        <v>134553</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2898151529012126</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2414707819597504</v>
+        <v>0.244811680842806</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3409263714290749</v>
+        <v>0.3441279872684815</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>169</v>
@@ -8723,19 +8723,19 @@
         <v>217386</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>190613</v>
+        <v>190069</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>249633</v>
+        <v>250263</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.299415771144047</v>
+        <v>0.2994157711440471</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2625404484837906</v>
+        <v>0.2617907097621105</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3438310782855342</v>
+        <v>0.3446993857722208</v>
       </c>
     </row>
     <row r="13">
@@ -8752,19 +8752,19 @@
         <v>31405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19360</v>
+        <v>19576</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47321</v>
+        <v>48227</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09373710324352215</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05778605121114096</v>
+        <v>0.05842982288450181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1412406530442465</v>
+        <v>0.1439451100714138</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -8773,19 +8773,19 @@
         <v>46404</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33839</v>
+        <v>32657</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63130</v>
+        <v>61900</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1186796393008413</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08654593854069606</v>
+        <v>0.08352234473796342</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1614591687505415</v>
+        <v>0.1583125220833577</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>61</v>
@@ -8794,19 +8794,19 @@
         <v>77809</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60813</v>
+        <v>60302</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100746</v>
+        <v>97252</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1071696404434356</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08376028294257788</v>
+        <v>0.08305730177796007</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.138762561377551</v>
+        <v>0.1339490391300962</v>
       </c>
     </row>
     <row r="14">
@@ -8823,19 +8823,19 @@
         <v>36270</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24176</v>
+        <v>23779</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>53550</v>
+        <v>53294</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1082579519795567</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07215897366558739</v>
+        <v>0.07097546599702297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1598343114950611</v>
+        <v>0.1590708938796664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>71</v>
@@ -8844,19 +8844,19 @@
         <v>75832</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59327</v>
+        <v>62227</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>94027</v>
+        <v>95130</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1939454487188296</v>
+        <v>0.1939454487188297</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1517325619344224</v>
+        <v>0.1591479049429683</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2404787948878591</v>
+        <v>0.2433005018557562</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>93</v>
@@ -8865,19 +8865,19 @@
         <v>112103</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90772</v>
+        <v>93036</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>136268</v>
+        <v>137577</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1544040409286793</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1250240570514598</v>
+        <v>0.1281420841615027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1876884693988932</v>
+        <v>0.1894914162146378</v>
       </c>
     </row>
     <row r="15">
@@ -8969,19 +8969,19 @@
         <v>56280</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41706</v>
+        <v>41807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73472</v>
+        <v>73057</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1143362820217191</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08472888312327895</v>
+        <v>0.08493362835008852</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1492623594556073</v>
+        <v>0.1484194114407675</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>78</v>
@@ -8990,19 +8990,19 @@
         <v>60238</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48187</v>
+        <v>48965</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>73347</v>
+        <v>73548</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1117103200155968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08936180667210454</v>
+        <v>0.09080592580804391</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1360224246763776</v>
+        <v>0.1363949868837925</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -9011,19 +9011,19 @@
         <v>116517</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98173</v>
+        <v>98931</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>136084</v>
+        <v>137427</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1129634744636352</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09517878400217539</v>
+        <v>0.09591316543863219</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1319336988215056</v>
+        <v>0.1332357479600054</v>
       </c>
     </row>
     <row r="17">
@@ -9040,19 +9040,19 @@
         <v>154756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>132754</v>
+        <v>131709</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>176710</v>
+        <v>177295</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3143962928529395</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2696977367190392</v>
+        <v>0.2675748349059776</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3589983364140362</v>
+        <v>0.3601871555527526</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>209</v>
@@ -9061,19 +9061,19 @@
         <v>157305</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140066</v>
+        <v>140276</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>175725</v>
+        <v>175409</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2917207040108072</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2597510484526466</v>
+        <v>0.2601415904503604</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3258815581998852</v>
+        <v>0.3252953971906091</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>341</v>
@@ -9082,19 +9082,19 @@
         <v>312060</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>281877</v>
+        <v>283228</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>339984</v>
+        <v>340889</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3025418868585244</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.27327927209916</v>
+        <v>0.2745889349108968</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3296140166708585</v>
+        <v>0.3304922113008273</v>
       </c>
     </row>
     <row r="18">
@@ -9111,19 +9111,19 @@
         <v>137613</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>117065</v>
+        <v>115890</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>158840</v>
+        <v>159910</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2795703801328371</v>
+        <v>0.2795703801328372</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2378246711135256</v>
+        <v>0.2354374362137911</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3226933120286675</v>
+        <v>0.3248668427815709</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>215</v>
@@ -9132,19 +9132,19 @@
         <v>152755</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>135103</v>
+        <v>135447</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>171124</v>
+        <v>170893</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2832832704450289</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2505478909182216</v>
+        <v>0.2511858626991885</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3173491859794021</v>
+        <v>0.316919824430415</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>341</v>
@@ -9153,19 +9153,19 @@
         <v>290368</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>265046</v>
+        <v>261344</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>317679</v>
+        <v>319632</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2815114150263466</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2569616744590384</v>
+        <v>0.2533732482375812</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3079897444020512</v>
+        <v>0.3098832687387457</v>
       </c>
     </row>
     <row r="19">
@@ -9182,19 +9182,19 @@
         <v>68412</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52968</v>
+        <v>54016</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86168</v>
+        <v>85302</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1389825547067257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1076083374941431</v>
+        <v>0.1097363781712247</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1750560101812328</v>
+        <v>0.173297388034344</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -9203,19 +9203,19 @@
         <v>65417</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53297</v>
+        <v>54227</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78454</v>
+        <v>79112</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.121315902251928</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09883964433636995</v>
+        <v>0.1005640043859418</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.145492509161295</v>
+        <v>0.1467137990236998</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>154</v>
@@ -9224,19 +9224,19 @@
         <v>133829</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>114997</v>
+        <v>114594</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>154855</v>
+        <v>155121</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1297467340971953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1114897286948457</v>
+        <v>0.1110989372907446</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1501317454475661</v>
+        <v>0.1503896995144931</v>
       </c>
     </row>
     <row r="20">
@@ -9253,19 +9253,19 @@
         <v>75171</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58818</v>
+        <v>59813</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92012</v>
+        <v>93035</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1527144902857785</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1194930380841876</v>
+        <v>0.1215136300211839</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1869276680458267</v>
+        <v>0.1890066845075407</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -9274,19 +9274,19 @@
         <v>103516</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>90052</v>
+        <v>87597</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>119598</v>
+        <v>119820</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1919698032766392</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1670004595536508</v>
+        <v>0.1624492143458122</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2217936594146928</v>
+        <v>0.222205515559047</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>213</v>
@@ -9295,19 +9295,19 @@
         <v>178687</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>157905</v>
+        <v>155478</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>202877</v>
+        <v>203764</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1732364895542985</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1530883796389444</v>
+        <v>0.1507356213003859</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1966895213800124</v>
+        <v>0.1975490789088001</v>
       </c>
     </row>
     <row r="21">
@@ -9399,19 +9399,19 @@
         <v>48176</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34745</v>
+        <v>34482</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>62829</v>
+        <v>62139</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07796027175039602</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05622596750480716</v>
+        <v>0.05580057686559048</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1016728342029206</v>
+        <v>0.1005560981891918</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>78</v>
@@ -9420,19 +9420,19 @@
         <v>51755</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41179</v>
+        <v>41957</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63112</v>
+        <v>64271</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.07642843785796175</v>
+        <v>0.07642843785796173</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06081008332991115</v>
+        <v>0.0619593202078618</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09319994854878412</v>
+        <v>0.09491028594761304</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>123</v>
@@ -9441,19 +9441,19 @@
         <v>99931</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82928</v>
+        <v>84440</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>119061</v>
+        <v>122138</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07715933485214094</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0640307901293959</v>
+        <v>0.0651981038982654</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09192990710678814</v>
+        <v>0.0943052803771479</v>
       </c>
     </row>
     <row r="23">
@@ -9470,19 +9470,19 @@
         <v>166269</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>143760</v>
+        <v>145991</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>188897</v>
+        <v>191400</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2690622285364579</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2326382003678064</v>
+        <v>0.2362488721775522</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3056796254198223</v>
+        <v>0.3097312601423586</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>268</v>
@@ -9491,19 +9491,19 @@
         <v>175227</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>157126</v>
+        <v>155594</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>192319</v>
+        <v>194592</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2587618099487481</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2320317325051366</v>
+        <v>0.2297699839775356</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2840027825983609</v>
+        <v>0.2873591796605483</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>424</v>
@@ -9512,19 +9512,19 @@
         <v>341495</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>311638</v>
+        <v>312827</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>372215</v>
+        <v>372727</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2636765366836298</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2406233127006273</v>
+        <v>0.2415410095400389</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2873958560193883</v>
+        <v>0.28779150852122</v>
       </c>
     </row>
     <row r="24">
@@ -9541,19 +9541,19 @@
         <v>183326</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>161736</v>
+        <v>161722</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>207726</v>
+        <v>206940</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2966645178370313</v>
+        <v>0.2966645178370314</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2617281591666332</v>
+        <v>0.2617052638664558</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3361500424622715</v>
+        <v>0.3348785096199663</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>304</v>
@@ -9562,19 +9562,19 @@
         <v>192302</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>174717</v>
+        <v>172758</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>211985</v>
+        <v>211088</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2839783055592524</v>
+        <v>0.2839783055592523</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2580098463397772</v>
+        <v>0.2551164984605418</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3130439888584213</v>
+        <v>0.3117198402721563</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>487</v>
@@ -9583,19 +9583,19 @@
         <v>375628</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>346949</v>
+        <v>345657</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>405571</v>
+        <v>406826</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2900313864234008</v>
+        <v>0.2900313864234007</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2678875897701537</v>
+        <v>0.2668900582333474</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3131509232063825</v>
+        <v>0.3141200404177393</v>
       </c>
     </row>
     <row r="25">
@@ -9612,19 +9612,19 @@
         <v>89805</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73551</v>
+        <v>73094</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>108052</v>
+        <v>110921</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1453259432750032</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1190230138606076</v>
+        <v>0.1182842859604873</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1748537167859984</v>
+        <v>0.1794959483373983</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>154</v>
@@ -9633,19 +9633,19 @@
         <v>96586</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>82829</v>
+        <v>82824</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>110704</v>
+        <v>110860</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1426315602169998</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1223164110346543</v>
+        <v>0.1223091303498774</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1634798898605188</v>
+        <v>0.1637101675978788</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>237</v>
@@ -9654,19 +9654,19 @@
         <v>186391</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>164024</v>
+        <v>168140</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>211693</v>
+        <v>212500</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1439171542281968</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1266471256442513</v>
+        <v>0.1298245697984831</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.16345305036238</v>
+        <v>0.1640766687380162</v>
       </c>
     </row>
     <row r="26">
@@ -9683,19 +9683,19 @@
         <v>130381</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>108926</v>
+        <v>109513</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>151681</v>
+        <v>151707</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2109870386011115</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1762680546751445</v>
+        <v>0.1772177593316759</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2454555211987069</v>
+        <v>0.2454979167926951</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>250</v>
@@ -9704,19 +9704,19 @@
         <v>161303</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>143696</v>
+        <v>144479</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>179529</v>
+        <v>180824</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.238199886417038</v>
+        <v>0.2381998864170379</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2122002660047062</v>
+        <v>0.2133555291321811</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2651150015491256</v>
+        <v>0.2670277365113333</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>372</v>
@@ -9725,19 +9725,19 @@
         <v>291683</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>266022</v>
+        <v>265422</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>321189</v>
+        <v>320862</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2252155878126316</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2054022218391774</v>
+        <v>0.2049383599368201</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2479977806008468</v>
+        <v>0.2477450657927792</v>
       </c>
     </row>
     <row r="27">
@@ -9829,19 +9829,19 @@
         <v>43495</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31831</v>
+        <v>32155</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57851</v>
+        <v>58102</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07793813687120127</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0570374313924258</v>
+        <v>0.05761772912574482</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.103660964941591</v>
+        <v>0.1041116587546921</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>60</v>
@@ -9850,19 +9850,19 @@
         <v>38408</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>30176</v>
+        <v>29565</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>49249</v>
+        <v>48113</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.06646086019520621</v>
+        <v>0.0664608601952062</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05221685517756991</v>
+        <v>0.0511583710865746</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08521995424406996</v>
+        <v>0.08325353683780058</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>102</v>
@@ -9871,19 +9871,19 @@
         <v>81904</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>66868</v>
+        <v>66630</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>99245</v>
+        <v>100914</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.07209932599748484</v>
+        <v>0.07209932599748485</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05886378295427554</v>
+        <v>0.05865435897980074</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08736473040416258</v>
+        <v>0.0888342291731561</v>
       </c>
     </row>
     <row r="29">
@@ -9900,19 +9900,19 @@
         <v>120017</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>103072</v>
+        <v>103546</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>140032</v>
+        <v>139918</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2150549912164917</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1846916951411338</v>
+        <v>0.185540346939896</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2509185839059668</v>
+        <v>0.2507138604019966</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>165</v>
@@ -9921,19 +9921,19 @@
         <v>101574</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>86700</v>
+        <v>88506</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>115404</v>
+        <v>116566</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1757621102994869</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1500242109009122</v>
+        <v>0.1531497378812577</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1996925802853717</v>
+        <v>0.20170395908433</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>290</v>
@@ -9942,19 +9942,19 @@
         <v>221591</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>200415</v>
+        <v>199544</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>246384</v>
+        <v>247388</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1950656063794339</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1764241546330472</v>
+        <v>0.1756571407065861</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2168907685376312</v>
+        <v>0.2177745743347594</v>
       </c>
     </row>
     <row r="30">
@@ -9971,19 +9971,19 @@
         <v>154101</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>134761</v>
+        <v>134024</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>174780</v>
+        <v>173591</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2761285873759884</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2414744309287906</v>
+        <v>0.2401527091926032</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3131823130715842</v>
+        <v>0.3110514346584469</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>272</v>
@@ -9992,19 +9992,19 @@
         <v>162581</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>146208</v>
+        <v>146481</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>178864</v>
+        <v>180180</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2813277514772586</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2529966578462711</v>
+        <v>0.2534693875955382</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3095040968086381</v>
+        <v>0.3117801047596493</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>450</v>
@@ -10013,19 +10013,19 @@
         <v>316682</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>292905</v>
+        <v>290595</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>344779</v>
+        <v>342505</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2787735472166992</v>
+        <v>0.2787735472166991</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2578430449797791</v>
+        <v>0.2558092220613707</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.303507290137775</v>
+        <v>0.3015054589447893</v>
       </c>
     </row>
     <row r="31">
@@ -10042,19 +10042,19 @@
         <v>111188</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>95948</v>
+        <v>93165</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>129939</v>
+        <v>130689</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1992337073857975</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.171926465953205</v>
+        <v>0.1669384564243955</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2328335741592886</v>
+        <v>0.2341776638111917</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>196</v>
@@ -10063,19 +10063,19 @@
         <v>117335</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>102927</v>
+        <v>102045</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>132308</v>
+        <v>133351</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2030351728650223</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1781028483280284</v>
+        <v>0.1765767496096799</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2289438020951255</v>
+        <v>0.2307477886072485</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>322</v>
@@ -10084,19 +10084,19 @@
         <v>228523</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>205153</v>
+        <v>209296</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>255154</v>
+        <v>254158</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2011676189401455</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1805952724333789</v>
+        <v>0.1842424225796296</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2246107869577824</v>
+        <v>0.2237343332247788</v>
       </c>
     </row>
     <row r="32">
@@ -10113,19 +10113,19 @@
         <v>129276</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>110067</v>
+        <v>113737</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>147685</v>
+        <v>150511</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2316445771505211</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1972250971889417</v>
+        <v>0.2038024483329058</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2646324947242517</v>
+        <v>0.2696960445710982</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>261</v>
@@ -10134,19 +10134,19 @@
         <v>158008</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>140974</v>
+        <v>142955</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>175315</v>
+        <v>174091</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2734141051630261</v>
+        <v>0.2734141051630259</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2439384987344488</v>
+        <v>0.2473668213612788</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3033617087388024</v>
+        <v>0.3012438174624529</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>401</v>
@@ -10155,19 +10155,19 @@
         <v>287283</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>262760</v>
+        <v>263278</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>314427</v>
+        <v>314082</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2528939014662367</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2313060392924049</v>
+        <v>0.2317625944956105</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2767882075125725</v>
+        <v>0.2764843537659758</v>
       </c>
     </row>
     <row r="33">
@@ -10259,19 +10259,19 @@
         <v>20231</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>13363</v>
+        <v>13268</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>29274</v>
+        <v>29382</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.05185790870578255</v>
+        <v>0.05185790870578256</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0342535431957585</v>
+        <v>0.03401012634679717</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07503836065181815</v>
+        <v>0.07531609983453709</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>35</v>
@@ -10280,19 +10280,19 @@
         <v>19350</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>13760</v>
+        <v>13714</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25528</v>
+        <v>25849</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0455749510770048</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03240936455842189</v>
+        <v>0.03230205344765772</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06012716793508494</v>
+        <v>0.06088272335758745</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>62</v>
@@ -10301,19 +10301,19 @@
         <v>39580</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>29451</v>
+        <v>30985</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>51355</v>
+        <v>50236</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.04858360292512216</v>
+        <v>0.04858360292512218</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03614965198098567</v>
+        <v>0.0380326413155103</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06303695585565182</v>
+        <v>0.06166260653138222</v>
       </c>
     </row>
     <row r="35">
@@ -10330,19 +10330,19 @@
         <v>66810</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>54563</v>
+        <v>55637</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>82171</v>
+        <v>80693</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1712558123473521</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1398627720830307</v>
+        <v>0.1426142063083942</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2106294017126559</v>
+        <v>0.2068421025935143</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>134</v>
@@ -10351,19 +10351,19 @@
         <v>70085</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>59294</v>
+        <v>61150</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>80764</v>
+        <v>82298</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.1650740825751922</v>
+        <v>0.1650740825751923</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1396569477749456</v>
+        <v>0.1440292295537274</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.190226801434386</v>
+        <v>0.1938413782623656</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>223</v>
@@ -10372,19 +10372,19 @@
         <v>136895</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>122175</v>
+        <v>121879</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>154152</v>
+        <v>155304</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.168034260536346</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1499663893475504</v>
+        <v>0.1496031733562566</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1892169270536074</v>
+        <v>0.1906305466115414</v>
       </c>
     </row>
     <row r="36">
@@ -10401,19 +10401,19 @@
         <v>98688</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>85571</v>
+        <v>84565</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>114828</v>
+        <v>112663</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2529694594093412</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2193470967036857</v>
+        <v>0.2167671789201833</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2943398884933626</v>
+        <v>0.2887915712528482</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>231</v>
@@ -10422,19 +10422,19 @@
         <v>123094</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>110074</v>
+        <v>109184</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>137127</v>
+        <v>137257</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2899286699220635</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2592615401732872</v>
+        <v>0.2571653359659978</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3229818967646285</v>
+        <v>0.3232879625718514</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>372</v>
@@ -10443,19 +10443,19 @@
         <v>221782</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>203578</v>
+        <v>203454</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>241729</v>
+        <v>245534</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.2722304132117612</v>
+        <v>0.2722304132117613</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2498860468234562</v>
+        <v>0.2497329437532022</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2967143346487202</v>
+        <v>0.301385304557292</v>
       </c>
     </row>
     <row r="37">
@@ -10472,19 +10472,19 @@
         <v>80227</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>67612</v>
+        <v>67186</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>94344</v>
+        <v>94404</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.2056473377803564</v>
+        <v>0.2056473377803563</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1733101628806923</v>
+        <v>0.172219821926152</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2418343424841963</v>
+        <v>0.241986499178486</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>168</v>
@@ -10493,19 +10493,19 @@
         <v>90867</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>78296</v>
+        <v>79626</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>103423</v>
+        <v>103680</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2140241077121869</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1844150386711002</v>
+        <v>0.1875466261893809</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.24359646632656</v>
+        <v>0.2442013563474688</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>283</v>
@@ -10514,19 +10514,19 @@
         <v>171094</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>155749</v>
+        <v>153424</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>191792</v>
+        <v>189174</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2100128146515398</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1911775497662237</v>
+        <v>0.188323282046996</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2354185410095143</v>
+        <v>0.232205237085729</v>
       </c>
     </row>
     <row r="38">
@@ -10543,19 +10543,19 @@
         <v>124163</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>107975</v>
+        <v>109257</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>139475</v>
+        <v>139732</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.3182694817571678</v>
+        <v>0.3182694817571677</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2767755184646939</v>
+        <v>0.2800615527646785</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.357519219487632</v>
+        <v>0.3581766351809946</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>235</v>
@@ -10564,19 +10564,19 @@
         <v>121170</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>106742</v>
+        <v>107236</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>133729</v>
+        <v>134970</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2853981887135526</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2514146799255414</v>
+        <v>0.2525779428398055</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3149791432899482</v>
+        <v>0.3179015141231922</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>411</v>
@@ -10585,19 +10585,19 @@
         <v>245333</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>225080</v>
+        <v>224090</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>266507</v>
+        <v>264434</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.3011389086752307</v>
+        <v>0.3011389086752308</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2762786934096969</v>
+        <v>0.275063392370521</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3271285094097545</v>
+        <v>0.3245844414773346</v>
       </c>
     </row>
     <row r="39">
@@ -10689,19 +10689,19 @@
         <v>8814</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>4993</v>
+        <v>4695</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15474</v>
+        <v>15687</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.02911926562021643</v>
+        <v>0.02911926562021642</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01649560111524343</v>
+        <v>0.01551200673527826</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05112152784646679</v>
+        <v>0.05182498013131091</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>29</v>
@@ -10710,19 +10710,19 @@
         <v>16349</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10520</v>
+        <v>11062</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>22679</v>
+        <v>22664</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03729977173002635</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02400164819826596</v>
+        <v>0.02523637211565431</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05174185031455147</v>
+        <v>0.05170759926574946</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>41</v>
@@ -10731,19 +10731,19 @@
         <v>25163</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>18232</v>
+        <v>18819</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>33371</v>
+        <v>33445</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03395811879002369</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02460430225062757</v>
+        <v>0.02539648489028044</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04503481211169303</v>
+        <v>0.04513390679137493</v>
       </c>
     </row>
     <row r="41">
@@ -10763,16 +10763,16 @@
         <v>29311</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>48769</v>
+        <v>49169</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1264800504524091</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.09683415234630746</v>
+        <v>0.09683213565135609</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1611164735634669</v>
+        <v>0.1624364584854388</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>89</v>
@@ -10781,19 +10781,19 @@
         <v>47754</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>38495</v>
+        <v>38822</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>57541</v>
+        <v>57965</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1089486876426878</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.08782410622427099</v>
+        <v>0.0885707277392143</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1312770414365968</v>
+        <v>0.1322446829408165</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>142</v>
@@ -10802,19 +10802,19 @@
         <v>86039</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>72758</v>
+        <v>73349</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>101521</v>
+        <v>101165</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1161100697489985</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.09818691333660889</v>
+        <v>0.09898451349304414</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1370030181840368</v>
+        <v>0.1365228837662701</v>
       </c>
     </row>
     <row r="42">
@@ -10831,19 +10831,19 @@
         <v>83530</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>72346</v>
+        <v>71229</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>97641</v>
+        <v>97041</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2759547994586537</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2390044470307421</v>
+        <v>0.2353139107283013</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3225725859742054</v>
+        <v>0.3205873969209188</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>194</v>
@@ -10852,19 +10852,19 @@
         <v>103701</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>91347</v>
+        <v>91513</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>117391</v>
+        <v>117128</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2365881803891585</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2084032141518119</v>
+        <v>0.2087825098641897</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2678210887139213</v>
+        <v>0.2672220178714016</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>313</v>
@@ -10873,19 +10873,19 @@
         <v>187231</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>168627</v>
+        <v>169611</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>206010</v>
+        <v>206130</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.2526690409845429</v>
+        <v>0.252669040984543</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2275634745758063</v>
+        <v>0.2288904923851488</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.278011769969878</v>
+        <v>0.2781735265441541</v>
       </c>
     </row>
     <row r="43">
@@ -10902,19 +10902,19 @@
         <v>86018</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>73777</v>
+        <v>72973</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>98800</v>
+        <v>99708</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2841737288982591</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.243731772444437</v>
+        <v>0.2410776076930779</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3263990928863226</v>
+        <v>0.3294013568300207</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>227</v>
@@ -10923,19 +10923,19 @@
         <v>117029</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>104219</v>
+        <v>103566</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>132063</v>
+        <v>130925</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2669951339946796</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2377707622461759</v>
+        <v>0.23628004664097</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3012965922774895</v>
+        <v>0.298698856367647</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>356</v>
@@ -10944,19 +10944,19 @@
         <v>203047</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>185496</v>
+        <v>183609</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>223862</v>
+        <v>222582</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.2740124140252908</v>
+        <v>0.2740124140252907</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2503274907165541</v>
+        <v>0.2477809054302175</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3021023548049208</v>
+        <v>0.3003749472186223</v>
       </c>
     </row>
     <row r="44">
@@ -10973,19 +10973,19 @@
         <v>86048</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>74654</v>
+        <v>73608</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>99918</v>
+        <v>99126</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2842721555704616</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2466308807708199</v>
+        <v>0.2431756848248525</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3300944381124865</v>
+        <v>0.3274765434080723</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>300</v>
@@ -10994,19 +10994,19 @@
         <v>153485</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>138837</v>
+        <v>138713</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>169344</v>
+        <v>167455</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3501682262434477</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3167503329147966</v>
+        <v>0.3164675128158133</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3863494829222274</v>
+        <v>0.3820411454091014</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>435</v>
@@ -11015,19 +11015,19 @@
         <v>239533</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>220606</v>
+        <v>220261</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>259921</v>
+        <v>260623</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.3232503564511441</v>
+        <v>0.3232503564511442</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.297708006228477</v>
+        <v>0.297242995483019</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3507645491837066</v>
+        <v>0.3517120343747549</v>
       </c>
     </row>
     <row r="45">
@@ -11119,19 +11119,19 @@
         <v>250298</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>216880</v>
+        <v>218121</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>286748</v>
+        <v>287450</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.08661390728377391</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07504992491128172</v>
+        <v>0.07547943963517342</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.09922713637608976</v>
+        <v>0.0994700107056521</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>342</v>
@@ -11140,19 +11140,19 @@
         <v>259275</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>231934</v>
+        <v>232193</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>288091</v>
+        <v>287297</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.07911870231157427</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.0707753523670314</v>
+        <v>0.0708543549757449</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08791173077660099</v>
+        <v>0.08766954129600699</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>559</v>
@@ -11161,19 +11161,19 @@
         <v>509573</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>466854</v>
+        <v>466888</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>556749</v>
+        <v>556008</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.08263098286813073</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07570374893665918</v>
+        <v>0.07570927021470983</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.09028078456183378</v>
+        <v>0.09016070262973856</v>
       </c>
     </row>
     <row r="47">
@@ -11190,19 +11190,19 @@
         <v>737938</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>684856</v>
+        <v>687101</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>787288</v>
+        <v>789118</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2553584115338384</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2369899085790833</v>
+        <v>0.2377668312994823</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2724357466301541</v>
+        <v>0.2730691676621716</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1004</v>
@@ -11211,19 +11211,19 @@
         <v>729878</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>689480</v>
+        <v>688406</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>774949</v>
+        <v>772263</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.2227244340812909</v>
+        <v>0.222724434081291</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2103969362752259</v>
+        <v>0.2100693113592426</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2364781110849828</v>
+        <v>0.2356585597237369</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1670</v>
@@ -11232,19 +11232,19 @@
         <v>1467815</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1399922</v>
+        <v>1401115</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1543969</v>
+        <v>1540379</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.238016835678688</v>
+        <v>0.2380168356786881</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.22700752440347</v>
+        <v>0.2272009248952502</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2503656323692841</v>
+        <v>0.2497835459150777</v>
       </c>
     </row>
     <row r="48">
@@ -11261,19 +11261,19 @@
         <v>812251</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>761961</v>
+        <v>763217</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>867329</v>
+        <v>865903</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.2810739480306077</v>
+        <v>0.2810739480306076</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2636714822579092</v>
+        <v>0.2641061326256607</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.300133444677449</v>
+        <v>0.2996398500769832</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1354</v>
@@ -11282,19 +11282,19 @@
         <v>899285</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>859471</v>
+        <v>858944</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>942120</v>
+        <v>948053</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2744195348781259</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2622700792477268</v>
+        <v>0.262109434844613</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2874908137047205</v>
+        <v>0.2893011511932801</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2183</v>
@@ -11303,19 +11303,19 @@
         <v>1711535</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1641043</v>
+        <v>1646257</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1779046</v>
+        <v>1781718</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.2775378173023484</v>
+        <v>0.2775378173023483</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.266106939714562</v>
+        <v>0.266952509224026</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2884851123026052</v>
+        <v>0.2889184864974833</v>
       </c>
     </row>
     <row r="49">
@@ -11332,19 +11332,19 @@
         <v>494140</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>455207</v>
+        <v>452619</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>542279</v>
+        <v>534710</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1709939766073913</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1575213479524173</v>
+        <v>0.156625855003405</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1876521446200041</v>
+        <v>0.1850329446629878</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>890</v>
@@ -11353,19 +11353,19 @@
         <v>553910</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>518132</v>
+        <v>519469</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>591532</v>
+        <v>590773</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1690272142033293</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1581094776018672</v>
+        <v>0.1585174427752833</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1805078236700808</v>
+        <v>0.1802762922248178</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1435</v>
@@ -11374,19 +11374,19 @@
         <v>1048050</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>996444</v>
+        <v>994939</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1105764</v>
+        <v>1101748</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.169948846283676</v>
+        <v>0.1699488462836759</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1615805670680903</v>
+        <v>0.1613365440674066</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1793076108151996</v>
+        <v>0.1786563728708571</v>
       </c>
     </row>
     <row r="50">
@@ -11403,19 +11403,19 @@
         <v>595185</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>552050</v>
+        <v>550752</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>638212</v>
+        <v>639266</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.2059597565443888</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1910331740495415</v>
+        <v>0.1905840864458929</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2208491431472681</v>
+        <v>0.2212137557960222</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1294</v>
@@ -11424,19 +11424,19 @@
         <v>834696</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>795060</v>
+        <v>787280</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>882539</v>
+        <v>876155</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2547101145256797</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2426149595096459</v>
+        <v>0.2402407662314058</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2693096184365663</v>
+        <v>0.2673612373126089</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1963</v>
@@ -11445,19 +11445,19 @@
         <v>1429881</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1366034</v>
+        <v>1371837</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1493738</v>
+        <v>1490661</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2318655178671569</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2215122794534451</v>
+        <v>0.2224533245301379</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2422204251149299</v>
+        <v>0.2417213787047078</v>
       </c>
     </row>
     <row r="51">
